--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,422 +454,4310 @@
           <t>date</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>is_it_related_to_fire_incident</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Salinas Unified High School District narrows down Superintendent search</t>
+          <t>Trailer catches fire carrying chickpeas near Death Valley National Park</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The article does not describe a fire incident. It focuses on the Salinas Union High School District's search for a new superintendent, detailing the process and community involvement in selecting candidates. There are no mentions of accidental or unintended fires affecting homes, buildings, or people.</t>
+          <t>LAS VEGAS, Nev. (FOX5) - A trailer carrying chickpeas burned in Death Valley National Park. According to park officials, around 5:30 a.m. a tractor-trailer carrying over 40 thousand pounds of dried chickpeas caught fire on Nov. 21. NPS reported the vehicles brakes overheated as they were traveling through Daylight Pass and Mud Canyon Road. This area is reportedly closed to commercials trucks. The truck pulled over and bursted into flames. Multiple agencies responded, including Death Valley Natio</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://kion546.com/news/salinas/2024/05/16/salinas-union-high-school-district-superintendent-dan-burns-to-step-down-from-role/</t>
+          <t>https://www.azfamily.com/2024/11/30/trailer-catches-fire-carrying-chickpeas-near-death-valley-national-park/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>21-11-2024</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Small brush fire broke out in Salinas Thursday afternoon</t>
+          <t>Truck carrying 44,000 pounds of chickpeas catches fire in Death Valley</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A small brush fire occurred on Thursday afternoon in Salinas, California, near Garner Avenue east of Natividad Creek. The fire was reported to be diminishing around 2:30 p.m. While the cause of the fire has not been confirmed, the Salinas Fire Department has been contacted for further details. The article primarily focuses on the fire incident and its location, but does not provide specific information about how the fire started or its impact on nearby homes or structures.</t>
+          <t>This material may not be published, broadcast, rewritten,
+      or redistributed. ©2024 FOX News Network, LLC. All rights reserved.
+      Quotes displayed in real-time or delayed by at least 15 minutes. Market data provided byFactset. Powered and implemented byFactSet Digital Solutions.Legal Statement. Mutual Fund and ETF data provided byRefinitiv Lipper. Fox News Flash top headlines are here. Check out what's clicking on Foxnews.com. A truck carrying 44,000 pounds of chickpeas burst into flames</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://kion546.com/news/salinas/2024/11/07/small-brush-fire-broke-out-in-salinas-thursday-afternoon/</t>
+          <t>https://www.foxnews.com/us/truck-carrying-44000-pounds-chickpeas-catches-fire-death-valley</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>21-11-2023</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Big Sur Fire rescued a hiker Sunday; CHP Coastal Division Air Operations</t>
+          <t>4 people, 3 dogs dead after home intentionally set on fire, Florida sheriff says</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The article reports on a rescue operation conducted by the CHP Coastal Division Air Operations for a hiker who injured their knee at the Barlow Flats Campground in Big Sur, California. The rescue involved a helicopter hoisting the hiker out of the area due to challenging conditions with large trees. However, the article does not describe any fire incident, accidental or otherwise, affecting homes, buildings, or people. It focuses solely on the rescue of the hiker.</t>
+          <t>Watch CBS News ByKerry Breen Updated on:  August 1, 2024 / 9:40 AM EDT/ CBS News Four people are dead after a man intentionally started a fire at his home on Wednesday, according to Florida officials. Three dogs in the house also died in the blaze in Plant City, which is about 25 miles east of Tampa, the Hillsborough County Sheriff's Officesaid in a news release. Shawn Gossett, 25, was arrested and charged. Police said that he "intentionally started" the fire "with the intent to burn the house d</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://kion546.com/big-sur/2024/11/11/big-sur-fire-rescued-a-hiker-sunday-chp-coastal-division-air-operations/</t>
+          <t>https://www.cbsnews.com/news/house-fire-florida-people-dogs-dead-shawn-gossett-arrested-arson/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-11-11</t>
+          <t>01-08-2024</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Multiple fire agencies responding to a fire in the riverbed near San Lorenzo Park</t>
+          <t>Four children and one adult dead after fire in Jeannette, Pennsylvania</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A wildfire, named the Broadway Fire, is currently burning near San Lorenzo Park in King City, California. The fire has spread to five acres, and multiple fire agencies, including Cal Fire, are responding to the incident. Access to the fire is challenging for crews, and the public is advised to avoid the area while efforts to extinguish the flames are underway. The article does not specify the cause of the fire, but it highlights the ongoing response to the situation.</t>
+          <t xml:space="preserve">Watch CBS News ByMike Darnay,Jennifer Borrasso,Erika Stanish,Shelley Bortz,Lauren Linder,Heather Lang Updated on:  March 21, 2024 / 1:21 AM EDT/ CBS Pittsburgh JEANNETTE, Pa. (KDKA) -- Four children and their dad are dead following a late-night house fire in Jeannette, according to the Westmoreland County coroner. There were eight people, two parents and their six small children, inside the home on Guy Street when the fire broke out around midnight on Wednesday. The coroner identified those who </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://kion546.com/news/top-stories/2024/11/21/multiple-fire-agencies-responding-to-a-fire-in-the-riverbed-near-san-lorenzo-park/</t>
+          <t>https://www.cbsnews.com/news/jeannette-deadly-house-fire-several-unaccounted-for-guy-street/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>21-03-2024</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Semi-trailer catches fire Thursday morning prompting the State Park Dr. off-ramp to close, now reopened; CHP</t>
+          <t>Chicago man killed in second house fire in same home</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A semi-trailer caught fire on Thursday morning in Santa Cruz, California, prompting the closure of the northbound Highway 1 State Park Dr. off-ramp. The fire led to debris littering the highway, which required cleaning crews to clear the area. The off-ramp has since reopened. The article does not specify the cause of the fire.</t>
+          <t>Watch CBS News BySabrina Franza Updated on:  February 19, 2024 / 9:48 AM EST/ CBS Chicago CHICAGO (CBS) --Chicago firefighters and police are investigating a fire in a Burnside home that ended with a 70-year-old man dead. The family called him kind, a great cook, and a selfless family man. The fire broke out on the first floor of a two-story coach house at 640 E. 89th Place. Inside the home, a large family thrived. Now, they are trying to understand how Howard Criddell, their 70-year-old father,</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://kion546.com/news/2024/11/21/semi-trailer-catches-fire-thursday-morning-prompting-the-state-park-dr-off-ramp-to-close-now-reopened-chp/</t>
+          <t>https://www.cbsnews.com/news/chicago-man-killed-in-second-house-fire-in-same-home/</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>19-02-2024</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Arizona Wildfires</t>
+          <t>2 children among 5 killed in Ohio house fire on Thanksgiving</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>The article discusses wildfires occurring in Northern Arizona, highlighting the ongoing situation and its implications for the region. While specific details about how the fires started are not provided, the mention of wildfires suggests they may have been caused by natural factors or other unintended circumstances. The impact of these wildfires is significant, likely affecting homes and the environment in the area. The article emphasizes the prevalence of wildfires in Arizona, particularly in Northern regions.</t>
+          <t>Watch CBS News November 25, 2023 / 10:48 PM EST/ AP Five people, including two children, were killed in a mobile home fire in Ohio on Thanksgiving morning, authorities said. The Ohio Department of Commerce said volunteer firefighters in Athens County were called to a Rainbow Lake Road address south of Athens at about 7:30 a.m. Thursday and found two mobile homes ablaze and an outbuilding also damaged. Richland Area volunteer firefighters reported that one of the mobile homes was engulfed in flam</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.azfamily.com/news/wildfires</t>
+          <t>https://www.cbsnews.com/news/5-killed-2-children-athens-ohio-house-fire-thanksgiving/</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Unknown Date</t>
+          <t>25-11-2023</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Trailer hauling antique car catches fire on Highway 68</t>
+          <t>Brooklyn fire that killed 3 family members caused by lithium-ion battery, FDNY says</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A trailer hauling an antique car caught fire on Highway 68 near York Road in Monterey County, California, on Wednesday night, leading to the closure of the highway in both directions. The cause of the fire has not been specified, and authorities are currently investigating the incident. There are no updates on injuries at this time, and the public is advised to avoid the area as the situation develops.</t>
+          <t>Watch CBS News ByHannah Kliger,Jenna DeAngelis Updated on:  November 13, 2023 / 11:38 PM EST/ CBS New York NEW YORK-- Fire marshals have confirmed thata fire that killed three people inside a Brooklyn home on Sundaywas caused by alithium-ion battery. The tragedy that took the lives of three generations of one family in the home on Albany Avenue inCrown Heightswas still very evident Monday. The smell of fire was still in the air and the sidewalk was full of debris that used to be their belongings</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://kion546.com/news/top-stories/2024/09/04/trailer-hauling-antique-car-catches-fire-on-highway-68/</t>
+          <t>https://www.cbsnews.com/news/watch-live-fdny-officials-provide-update-on-crown-heights-brooklyn-fire-that-killed-3-family-members/</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>13-11-2023</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Person of interest detained after three men are found dead following house fire near Los Angeles</t>
+          <t>3 killed, 14 injured in Brooklyn house fire, FDNY says</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A house fire in Temple City, California, near Los Angeles, resulted in the deaths of three men and left three others hospitalized. The fire, reported around 5 p.m. on a Sunday, was extinguished by firefighters within half an hour. Upon investigation, three bodies were found inside the home, while two men outside suffered burns and were taken to the hospital. Authorities have detained a 64-year-old man, described as a person of interest, who is believed to have set the fire. The circumstances surrounding the fire and the deaths are still under investigation, and no arrests have been made yet.</t>
+          <t xml:space="preserve">Watch CBS News ByChristina Fan,Jenna DeAngelis,Shosh Bedrosian Updated on:  November 12, 2023 / 11:30 PM EST/ CBS New York NEW YORK-- TheNYPDconfirmed three people died in a tragic house fire inBrooklynon Sunday morning. It happened inCrown Heights, where several other people were able to escape from the intense flames. "We were home sleeping and all I heard was my mom saying, 'Fire! Fire! Get out! Fire! Fire!,'" next-door neighbor Abigail Cepada said. Cepada shot video after she and her family </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://kion546.com/news/ap-california/2024/10/28/person-of-interest-detained-after-three-men-are-found-dead-following-house-fire-near-los-angeles/</t>
+          <t>https://www.cbsnews.com/news/brooklyn-three-alarm-fire-injures-17-including-1-firefighter/</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>12-11-2023</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Erik Olson pleas guilty in uncle’s 2019 murder and arson case; Monterey DA’s Office</t>
+          <t>"Grey's Anatomy" star Caterina Scorsone reveals she rescued her children from a house fire</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>The article details a case involving Erik Bjorn Olson, who pleaded guilty to the murder of his uncle, Greg Leonard Kolbo, in a fire incident that occurred on March 7, 2019, in Fort Ord, California. Neighbors reported seeing black smoke coming from Kolbo's duplex home, prompting a 911 call. After the fire was extinguished, human remains were discovered, later identified as Kolbo, who had suffered blunt force trauma and was found partially burned. The fire's cause is linked to Olson's actions, as he fled the scene, leaving behind evidence. The investigation involved multiple law enforcement agencies, leading to Olson's arrest within 48 hours. The incident highlights a tragic case of murder intertwined with an accidental fire affecting a home.</t>
+          <t>Watch CBS News BySimrin Singh April 4, 2023 / 10:58 PM EDT/ CBS News "Grey's Anatomy" star Caterina Scorsone revealed in a social media post Monday that she saved her three children from a house fire "a couple of months ago," escaping her burning Southern California residence in about two minutes. "While getting my kids ready for bed and finishing bath time, smoke began to seep up through the grout around the tub," Scorsone wrote on Instagram, alongside a photo of the fire damage in her home. "W</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://kion546.com/news/seaside/2019/05/28/seaside-fire-suspect-expected-back-in-court-in-late-august/</t>
+          <t>https://www.cbsnews.com/news/greys-anatomy-star-caterina-scorsone-house-fire-southern-california/</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2019-05-28</t>
+          <t>04-04-2023</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Salinas Police respond to reports of projectile incident: Big rig damaged by possible “commercial grade firework”</t>
+          <t>Nearly 2 dozen firefighters injured battling New York house fire</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The article reports on an incident in Salinas, California, where a big rig was damaged by what authorities describe as a "commercial grade firework." While the firework caused damage, there were no injuries reported. The police clarified that this was not a typical consumer firework but one similar to those used in professional displays. The investigation is ongoing, and police do not believe it was a targeted attack, indicating no further danger to the public. The incident does involve a fire-related event, but it does not describe an accidental fire affecting homes or buildings in the traditional sense.</t>
+          <t>Watch CBS News ByFaris Tanyos February 17, 2023 / 7:00 PM EST/ CBS News At least 22 New York City firefighters were injured, three critically, while battling a large blaze at a duplex on Staten Island Friday afternoon. The fire was reported in both sides of the duplex at about 1:30 p.m. EST, and crews arrived on scene within four minutes to find "heavy smoke and fire," FDNY Commissioner Laura Kavanagh said in a Friday evening news conference. Three firefighters were rushed to a Staten Island hos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://kion546.com/news/top-stories/2024/10/31/salinas-police-respond-to-reports-of-projectile-incident-big-rig-damaged-by-possible-commercial-grade-firework/</t>
+          <t>https://www.cbsnews.com/news/nearly-2-dozen-firefighters-injured-battling-staten-island-house-fire/</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cal Fire battling wildfire burning east of Bradley</t>
+          <t>House fire that killed 1 and injured 10 was sparked by lithium-ion battery, FDNY says</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A wildfire is currently burning east of Bradley in South Monterey County, California, with Cal Fire responding to the incident. The fire has the potential to expand to 150 acres and has already consumed approximately 5 to 10 acres. It poses a threat to at least three structures, although it is not specified whether these are homes or other types of buildings. The fire is located in a grassy area along Indian Valley and Big Sandy Road, and multiple firefighting resources, including engines and air support, are being deployed to combat the blaze.</t>
+          <t>Watch CBS News ByKerry Breen January 21, 2023 / 11:17 AM EST/ CBS News A man is dead after a late-night house fire was sparked by a lithium-ion battery in New York City, according to officials. According to the FDNY, firefighters were alerted to a blaze at a three-story home in Elmhurst, Queens, just after 11 p.m. on Friday. The second and third floors of the home were on fire. When firefighters were able to access the home, they found a man on the second floor suffering from smoke inhalation. H</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://kion546.com/news/top-stories/2024/11/17/cal-fire-battling-wildfire-burning-east-of-bradley/</t>
+          <t>https://www.cbsnews.com/news/house-fire-that-killed-1-injured-10-was-started-by-lithium-ion-battery-fdny-says/</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>21-01-2023</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Million dollar rare car destroyed in fire after showcasing at Pebble Beach’s Concours d’Elegance</t>
+          <t>Mother dies trying to rescue 6-year-old daughter from NJ house fire</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A fire incident occurred on a highway in Pebble Beach, California, involving a vehicle trailer carrying a rare 1979 Ford Ghia Probe I Prototype, which was destroyed after showcasing at the Pebble Beach Concours d’Elegance. The fire broke out around 7 p.m. on Sunday, and while it spread to nearby vegetation, the Monterey Fire Department was able to extinguish it, minimizing damage to the towing vehicle. One firefighter sustained minor injuries during the response. The cause of the fire is under investigation, and the estimated damage is over $1 million. Fortunately, the team member driving the trailer was unharmed, and their quick actions prevented further spread of the fire. The restoration company expressed gratitude for the safety of their team and the history they shared with the car, indicating they do not plan to refurbish it.</t>
+          <t>Watch CBS News ByGreg Cannella Updated on:  January 17, 2023 / 9:31 PM EST/ CBS News Family and friends say a New Jersey mother killed in a house fire Friday spent her last moments running into the flames to save her child. Jacqueline Montanaro, 40, was able to escape the fire but soon realized her 6-year-old daughter Madelyn was still inside the family's Hazlet house,CBS New York reports. She ran back inside amid the thick smoke, but both perished. William Montanaro, the woman's husband, and th</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://kion546.com/news/car-week/2024/08/19/million-dollar-rare-car-destroyed-in-fire-after-showcasing-at-pebble-beachs-concours-delegance/</t>
+          <t>https://www.cbsnews.com/news/mother-dies-trying-to-rescue-6-year-old-daughter-nj-house-fire/</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>17-01-2023</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Safe and sane fireworks: What are they and how do we dispose of them?</t>
+          <t>Deaths of 8 family members, including 6 children, found in burning Oklahoma home investigated as murder-suicide</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>The article discusses the regulations and disposal methods for "safe and sane" fireworks in California, particularly around the Fourth of July celebrations. It explains the distinction between consumer fireworks and illegal fireworks, emphasizing that while some cities permit certain types of fireworks, others, like Santa Cruz, ban all fireworks entirely. The article does not describe any specific fire incident resulting from fireworks; instead, it focuses on the legal aspects and safety measures related to their use. Therefore, it does not involve an accidental or unintended fire incident affecting homes or people.</t>
+          <t>Watch CBS News October 28, 2022 / 3:34 PM EDT/ AP The deaths of eight family members — including six children —found in a burning Oklahoma homeare being investigated as a murder-suicide, authorities said Friday. Police are trying to determine whether both adults were involved in the killings. The children, who ranged in age from 1 to 13, were the victims, Broken Arrow Police Chief Brandon Berryhill saidduring a news conference. He did not provide their identities, ages or explain their relations</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://kion546.com/lifestyle/holidays/2024/07/04/safe-and-sane-fireworks-what-are-they-and-how-do-we-dispose-of-them/</t>
+          <t>https://www.cbsnews.com/news/oklahoma-home-fire-deaths-investigation-murder-suicide-broken-arrow/</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>28-10-2022</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Salinas radio station damaged by structure fire late Sunday night</t>
+          <t>Ten people displaced after their home catches fire in Marina, ‘total loss’; Marina Fire</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A structure fire occurred late Sunday night at Radio Vision, a local Spanish radio station on East Alisal Street in Salinas, California. The fire caused damage to the station's office, but firefighters successfully prevented it from spreading to other businesses in the multi-use building. Fortunately, no one was inside at the time of the incident, and the cause of the fire is currently under investigation. Nearby business owners expressed relief that their shops were not affected by the fire.</t>
+          <t>MARINA, Calif. (KION-TV) -- Marina Fire responded to a fire they're calling Lake Structure Fire Incident at approximately 6:20 p.m. Wednesday night on the 3100 block of Lake Drive in Marina that displaced ten residents. They said that fire partners from Seaside, North Monterey County, Monterey County Regional and Presidio of Monterey fire departments joined in the efforts to extinguish the fire, but despite efforts, the structure is a total loss. People were inside the home but evacuated prior t</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://kion546.com/news/2024/10/21/salinas-radio-station-damaged-by-structure-fire-late-sunday-night/</t>
+          <t>https://kion546.com/marina/2024/11/27/ten-people-displaced-after-fire-sparks-at-home-the-night-before-thanksgiving/</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>27-11-2024</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CAL FIRE says even ‘safe and sane’ fireworks pose a danger in the dry hot heat</t>
+          <t>Cal Fire battling wildfire burning east of Bradley</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>The article discusses the heightened fire danger in Salinas, California, due to extreme heat and the use of fireworks during the Fourth of July celebrations. CAL FIRE reports a significant increase in fire activity this year, with a 6,000% rise compared to the previous year. Despite the promotion of "safe and sane" fireworks, officials warn that even these can pose risks, especially in dry conditions. The article highlights the potential for accidental fires if fireworks are used near homes or dry grass. CAL FIRE has already responded to 67 fires this year, indicating a busy season ahead. The community is urged to take precautions to prevent any unintended fire incidents.</t>
+          <t>SOUTH MONTEREY COUNTY, Calif. (KION-TV) -- Cal Fire confirms they're responding to a wildfire burning east of Bradley that has the potential to grow to 150 acres. According to Cal Fire, the fire is threatening at least three structures although it's unclear if those are homes or other buildings. As of 1:52 p.m. the fire has burned about 5 to 10 acres, according to Cal Fire. The fire is also burning in a grassy area along Indian Valley and Big Sandy Road. Multiple engines are on the way along wit</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://kion546.com/news/local-news/2024/07/02/cal-fire-says-even-safe-and-sane-fireworks-pose-a-danger-in-the-dry-hot-heat/</t>
+          <t>https://kion546.com/news/top-stories/2024/11/17/cal-fire-battling-wildfire-burning-east-of-bradley/</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>17-11-2024</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CAL FIRE BEU does extended annual attacks, simulates real-life fire scenarios for training</t>
+          <t>Forward progress stopped for a vegetation fire in North Monterey County Friday</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>The article discusses CAL FIRE's annual extended attack drill held in Salinas, California, where over 200 fire personnel participated in a simulated fire incident to enhance their training. The drill aims to prepare trainees and experienced personnel for real-life fire emergencies by practicing communication and resource allocation during chaotic situations. While the article highlights the importance of training for future fire incidents, it does not describe an actual fire incident affecting homes or buildings; instead, it focuses on preparation and simulation.</t>
+          <t>MONTEREY COUNTY, Calif. (KION-TV) -- North County Fire confirmed that a 1/3-acre fire broke out midday Friday after a home owner was welding a fence that sparked nearby grass. Although air crews were called out, North County Fire had the fire under control and forward progress has since stopped. There was one structure at risk during the fire. Jump to comments ↓ I’ve been an international professional writer and performer for over 25 years. With a background in journalism, creative writing, danc</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://kion546.com/news/local-news/2024/06/14/cal-fire-beu-does-extended-annual-attacks-simulates-real-life-fire-scenarios-for-training/</t>
+          <t>https://kion546.com/news/monterey-county/2024/11/15/forward-progress-stopped-for-a-vegetation-fire-in-north-monterey-county-friday/</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-06-14</t>
+          <t>15-11-2024</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Seaside Police enforcing new rules to prevent illegal fireworks</t>
+          <t>Mountain Fire reaches 48% containment in Ventura County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The article discusses Seaside Police's enforcement of new rules to prevent illegal fireworks during the Fourth of July celebrations. It emphasizes a 10:00 p.m. curfew and prohibits parking along General Jim Moore Boulevard. The police remind the public that only safe and sane fireworks are permitted, while all aerial fireworks are illegal and could result in fines or misdemeanor charges. However, the article does not describe any specific fire incident related to these fireworks, focusing instead on regulations to prevent potential fire hazards.</t>
+          <t>By Rebekah Ludman Click here for updates on this story 11/12/24 (LAPost.com) — Fire crews from Los Angeles and Orange counties and across California continue to work Tuesday to battle a wildfire in Ventura County. The wildfire, known as the Mountain Fire, has forced thousands of people to evacuate from their homes, amid the Santa Ana winds. According to Cal Fire, the fire has left a total of six injuries, 207 structures have been destroyed, and 90 structures have been damaged. “The fire is burni</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://kion546.com/news/top-stories/2024/06/13/seaside-police-enforcing-new-rules-to-prevent-illegal-fireworks/</t>
+          <t>https://kion546.com/cnn-regional/2024/11/12/mountain-fire-reaches-48-containment-in-ventura-county/</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-06-13</t>
+          <t>12-11-2024</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Seaside City Council takes first steps to put ‘safe and sane’ fireworks on the November ballot</t>
+          <t>47-year-old Marina man convicted for firebombing a car; Monterey County DA’s office</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The article discusses a decision by the Seaside City Council to allow voters to decide on the future of "safe and sane" fireworks in the city during the November 2024 election. It mentions that the council had previously banned these types of fireworks in 2020, but the ban was overturned following a referendum with 2,400 signatures. However, the article does not describe any specific fire incident, accidental or unintended, related to homes or buildings. It primarily focuses on the legislative process regarding fireworks regulation rather than any fire-related events.</t>
+          <t>SEASIDE, Calif. (KION-TV) --UPDATE November 8 at 9:52 a.m.: The Monterey County District Attorney's office announced Friday that a county jury convicted 47-year-old James Sloop of Marina on one count of arson. Last May, Sloop drove to a Seaside neighborhood, parked his car, got out and paced around in front of the victim's house and driveway, according to the DA's office. They say that he ended up pouring "an unknown ignitable fluid over the hood of a car," which caused an explosion and severe d</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://kion546.com/news/top-stories/2024/03/11/seaside-city-council-takes-first-steps-to-put-safe-and-sane-fireworks-on-the-november-ballot/</t>
+          <t>https://kion546.com/news/top-stories/2024/05/06/seaside-police-arrested-47-year-old-man-accused-of-firebombing-car/</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>06-05-2024</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Rally calls for Seaside Police officer to be fired following allegations of excessive force with 15-year-old</t>
+          <t>Slower Winds Expected to Aid Fight Against ‘Nightmare’ California Fire</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>The article does not describe a fire incident. It focuses on a rally in Seaside calling for the firing of a police officer accused of excessive force against a 15-year-old. The content discusses public reactions, ongoing investigations, and community concerns regarding police conduct, but there are no mentions of accidental or unintended fires affecting homes, buildings, or people.</t>
+          <t>U.S. Wildfires Advertisement Supported by The fast-moving Mountain fire forced thousands to evacuate and destroyed neighborhoods in the hilly communities of Ventura County. “We figured we were trapped,” one resident said. ByCorina KnollandRachel Parsons Corina Knoll reported from Los Angeles, and Rachel Parsons from Camarillo, Calif. Firefighters in Southern California expected a reprieve from extreme weather conditions on Friday as they continued to battle a fast-moving fire that has already de</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://kion546.com/news/2023/12/21/rally-calls-for-seaside-police-officer-to-be-fired-following-allegations-of-excessive-force-with-15-year-old/</t>
+          <t>https://www.nytimes.com/2024/11/07/us/mountain-fire-ventura-california.html</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Man accused of lighting clothes on fire inside Phoenix mobile home, killing 2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PHOENIX (AZFamily)— A man is accused of lighting his clothes on fire inside a north Phoenix mobile home, leading to the deaths of two men. Phoenix police announced Wednesday that Joel Hernandez Anaya, 22, was taken into custody in connection to the deadly fire. On Sunday, around 9:45 a.m., firefighters were called to fight a fast-moving fire near 24th Street and Union Hills Drive. Court documents say five people were inside the home, including Anaya, when the fire broke out. Anaya and two others</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/11/27/suspect-faces-homicide-charges-mobile-home-fire-leaves-2-dead-phoenix/</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>27-11-2024</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Phoenix man attempts to rescue neighbors from deadly mobile home fire</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PHOENIX (AZFamily)— A Phoenix man tried to save his neighbors as adeadly mobile home firebroke out Sunday morning in north Phoenix. Two men were killed, and three others were hospitalized with burn injuries. The man who helped did not want recognition and asked not to share his name but said it was his instinct to help his neighbors. “There are no words to describe what happened here, truly. When you live through it and see it with your own eyes, you can’t really describe what happened in the mo</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/11/26/phoenix-man-attempts-rescue-neighbors-deadly-mobile-home-fire/</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>26-11-2024</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2 dead, multiple injured after double mobile home fire in Phoenix</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PHOENIX (AZFamily)— Two people are dead, and multiple people are in the hospital after a double mobile home fire in Phoenix on Sunday morning. Phoenix fire crews responded to a double mobile home fire near 24th Street and Union Hills Drive. Firefighters extinguished the fire, where they say two people died at the scene, and three others were taken to the hospital in stable condition for burn injuries. It is unknown what sparked the flames. Marisol Ross Lopez talked with Arizona’s Family at the s</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/11/24/2-dead-multiple-injured-after-double-mobile-home-fire-phoenix/</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>24-11-2024</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>5 houseboats damaged in fire at Roosevelt Lake Marina</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ROOSEVELT, AZ (AZFamily)— Multiple houseboats were heavily damaged after catching fire on Roosevelt Lake early Tuesday morning. Tonto Basin Fire District crews were dispatched to the second-alarm fire at the lake around 6 a.m. Multiple agencies responded to the fire, including Tri-City Fire, Gila County Sheriff’s Office, Arizona Game and Fish Department and the Payson Fire Department. At approximately 0602 hrs. this morning Tonto Basin Fire District responded to reports of a boat fire at the Roo</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/11/26/5-houseboats-damaged-fire-roosevelt-lake-marina/</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>26-11-2024</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Brush fire in Tempe being investigated as arson</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TEMPE, AZ (AZFamily)— A fire that broke out Sunday afternoon in Tempe near the Salt River is now being investigated as arson. The brush fire started on the north side of Tempe Town Lake, just east of the east dam, the Tempe Fire Department said. Crews were able to quickly contain the blaze and prevent it from growing larger. No injuries were reported. Tempe Police said some palm trees and wildlife were destroyed in the fire. The fire remains under investigation and is thought to have been intent</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/11/25/brush-fire-tempe-being-investigated-arson/</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Arson suspected after massive fire at Apache Junction housing development</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>APACHE JUNCTION, AZ (AZFamily)— The Apache Junction Police Department said its investigating a massive fire at housing development site as a case of arson days after the blaze ripped through two new homes. The fire happened late Tuesday night nearIdaho Road and Tepee Street, north of Superstition Boulevard around 11:30 p.m. Supersititon Fire &amp; Medical District crews arrived and found the homes fully engulfed in flames. Video from the scene showed heavy smoke billowing through the area, and the l</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/11/22/arson-suspected-after-massive-fire-apache-junction-housing-development/</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>22-11-2024</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Crews battle massive fire at new housing development in Apache Junction</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">APACHE JUNCTION, AZ (AZFamily)— Firefighters from Mesa and Apache Junction worked to battle a fire at a housing development in the East Valley late Tuesday night. Just before 11:30 p.m., six engine crews from Superstition Fire &amp; Medical District, along with Mesa firefighters, were called to a massive fire nearIdaho Road and Tepee Street, north of Superstition Boulevard. Two crews arrived on scene first and found a new-build construction site engulfed in flames. Crews went defensive and began to </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/11/20/crews-battle-massive-fire-new-housing-development-apache-junction/</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20-11-2024</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Lanes reopen after semi-truck fire on Loop 101 in Scottsdale</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SCOTTSDALE, AZ (AZFamily)—All lanes of a Scottsdale freeway have reopened after a semi-truck caught fire Tuesday morning. The fire broke out on Loop 101 near Hayden Road. Heavy smoke rose in the area as firefighters worked to put out the flames. The Arizona Department of Public Safety reports that the driver was able to get out before the fire spread and was not hurt. According to the Arizona Department of Transportation, Loop 101 westbound was closed for several hours as crews worked to clear t</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/11/19/semi-truck-fire-partially-closes-loop-101-scottsdale/</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>19-11-2024</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Human-caused fire burns 40 acres in Tonto National Forest</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TONTO NATIONAL FOREST, AZ (AZFamily)— A wildfire is burning almost 40 acres in the Tonto National Forest near Sugarloaf Mountain. Fire crews said the fire is 50% contained at 39.3 acres as of Sunday evening. The Tonto National Forest said the fire was human-caused in an update on X. Fire crews are responding to the#SkittleFire, located at Sugarloaf Mountain on Mesa Ranger District. The fire is human-caused and approximately 20 acres.pic.twitter.com/el6jnK22SA The fire is located west of Forest S</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/10/21/human-caused-fire-burns-40-acres-tonto-national-forest/</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>21-10-2024</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Flood Fire burns roughly 4,400 acres in Pinal County; 80% contained</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ORACLE JUNCTION, AZ (AZFamily)—Crews have gained control of a fire that’s burned thousands of acres and briefly forced residents out of their homes in a community north of Tucson. The Flood Fire broke out Wednesday just northwest ofOracle Junction, near South Palo Verde Ranch Road and East Chief Butte Road. As of Sunday morning, the fire has burned 4,400 acres and is 80% contained. While it initially did not threaten homes, high winds overnight changed that. Gusts up to 30 mph fanned the fire in</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/10/10/flood-fire-forces-evacuations-north-tucson/</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10-10-2024</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Pinal County community must prepare to evacuate Whitlow Fire burns 218 acres</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>QUEEN VALLEY, AZ (AZFamily)— A small Pinal County community should prepare for possible evacuations due to a wildfire that started on Saturday morning. According to the Pinal County Sheriff’s Office, a fire broke out around 11:30 a.m. near the river banks west ofHewitt Station Road and Forest Road 3493. The blaze is roughly four miles outside of Queen Valley, which is 18 miles west of Superior. According to Tonto National Forest officials, as of Sunday afternoon, the fire has burned 218 acres an</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/10/05/pinal-county-community-upgraded-set-status-due-fire/</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>05-10-2024</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fall Fire burns over 400 acres in Gila River Indian Community; evacuations lifted</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PHOENIX (AZFamily)— A wildfire is burning hundreds of acres on the Gila River Indian Communitysouthwest of Loop 202 and 17th Avenue. The blaze is in District 6 of the community near Santa Cruz and Cemetery Road. The fire started as a two-acre fire and has grown to 407 acres as of Sunday. Officials say the fire is 0% contained. Homes near the fire were evacuated, and residents were relocated to a community facility on Saturday. In an update Sunday night, the Gila River Indian Community says power</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/09/30/fall-fire-forces-evacuations-gila-river-indian-community-southwest-phoenix/</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>30-09-2024</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SR 87 reopens between Phoenix area, Payson following brush fire</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MESA, AZ (AZFamily)— A brush fire forced the closure of state Route 87, also known as the Beeline Highway, between the East Valley and Payson on Thursday evening, but the highway is now back open for drivers. Arizona Department of Transportation officials say a semi-truck fire started the Valley Fire about 12 miles north of the Bush Highway just before 5:30 p.m. Tonto National Forest says the Valley Fire burned 6 acres but forward progress has been stopped, and crews are in the mop-up stages. No</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/09/20/sr-87-closed-between-phoenix-area-payson-due-small-brush-fire/</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>20-09-2024</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Yarnell communities told to prepare for possible evacuations due to Crest Way Fire</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>YARNELL, AZ (AZFamily)— A wildfire forced evacuations for several hours Monday afternoon for a large swath of Yarnell east of State Route 89. Residents east of the highway and south of Maughan Ranch Road through Mina Road and around the Yarnell Creek area were told to leave their homes due to the Crest Way Fire. About 14 homes were evacuated but residents were allowed to return back around 5 p.m. Video from the scene showed firefighters hosing down on the side of the mountain but no visible flam</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/09/16/crest-way-fire-forces-evacuations-yarnell-nearby-communities/</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16-09-2024</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Public asked to avoid area as Siphon Fire grows to roughly 16,000 acres in Superstition Wilderness</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>APACHE JUNCTION, AZ (AZFamily)— Evacuations were lifted as a wildfire continues burning in the Superstition Wilderness. Tonto National Forest officials say the human-causedSiphon Fireis burning in rugged terrain northeast of Apache Junction. As of Sept. 18, the fire is estimated to have burned 15,527 acres with 58% containment. A“GO” status was issuedlate morning on Sept. 12 for an evacuation of the Canyon Lake/Tortilla Flat area, but all GO statuses were returned to READY on Sunday. Lost Dutchm</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/09/12/evacuations-underway-siphon-fire-grows-superstition-wilderness/</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12-09-2024</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Point Fire burns 5,000+ acres northeast of New River</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>NEW RIVER, AZ (AZFamily)— Dozens of firefighters are working to protect properties northeast of New River as a wildfire has burned thousands of acres this week. The Point Fire has scorched 5,664 acres and was 42% contained as of 6 a.m. Sunday. The flames are burning near West Point Mountain, nearly five miles northeast of New River. Fire officials say residents in Cave Creek may see minimal smoke along the Spur Cross drainage. Firefighters will continue to patrol and monitor fire perimeters thro</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/09/11/point-fire-burns-out-control-northeast-new-river/</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11-09-2024</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Gate Fire stopped at 75 acres near north Scottsdale homes</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SCOTTSDALE, AZ (AZFamily)— Firefighters stopped a fast-moving brush fire that threatened a neighborhood in far north Scottsdale on Thursday. The flames from the Gate Fire, previously named the Sand Hills Fire, came within feet of homes in the area of128th Street and Ranch Gate Road, near the Tom’s Thumb Trailhead. One firefighter was treated for heat exhaustion, but no other injuries have been reported so far. On Friday morning, Arizona Forestry and Fire Management took command of the blaze and </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/09/13/firefighters-get-upper-hand-gate-fire-near-north-scottsdale-homes/</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13-09-2024</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Hazy day in Arizona as wildfires scorch California, other Western states</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>PHOENIX (AP/AZFamily)— Haze and smoke are visible across Arizona on Wednesday thanks to significant wildfires in Southern California. See the latest forecast here. Three major wildfires in the Golden State expanded dramatically — burning homes, cars and horse stables in hillside communities and injuring at least a dozen people, officials said Wednesday. In the tight-knit community of Wrightwood, trees burned behind homes as authorities implored residents to evacuate the exploding Bridge Fire. Er</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/09/11/hazy-day-ahead-arizona-due-smoke-southwest-us/</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11-09-2024</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Arizona crews aid in battling fast-moving wildfire east of Los Angeles</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SAN BERNARDINO, Calif. (AP/AZFamily)-- Thousands of homes and buildings east of Los Angeles are under threat from an uncontrolled wildfire. California firefighters said more than 35,000 structures, including single—and multi-family homes and commercial buildings, are threatened. Authorities have issued evacuation orders for several areas. The so-called Line Fire was burning along the edge of the San Bernardino National Forest, about 65 miles east of LA. On Monday morning the fire was estimated a</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/09/08/arizona-crews-aid-battling-fast-moving-wildfire-east-los-angeles/</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Lightning-caused Wood Fire grows to over 7,000 acres near Superior</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SUPERIOR, AZ (AZFamily)— A wildfire burning east of the Valley has grown thousands of acres since its start over the weekend. The Wood Fire was sparked by lightning early Sunday afternoon aboutfive miles southwest of Superior. Tonto National Forest officials say the fire is active and continues to burn in remote terrain.According to wildfire officials, the fire has burned roughly 7,194 acres. On Thursday, the Pinal County Sheriff’s Office said residents in the neighborhood off North Hing Avenue,</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/09/02/lightning-caused-wood-fire-grows-2200-acres-near-superior/</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>02-09-2024</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Firework thrown from car window allegedly caused destructive California wildfire</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>OROVILLE, Calif. (AP) — A 26-year-old man has been accused of igniting adestructive California wildfirein early July by throwing a firework from a car window during hot, dry and windy weather. Spencer Grant Anderson, of Oroville, was charged Monday after weeks of continuous surveillance by investigators, the Butte County District Attorney’s Office said. TheThompson firescorched nearly 6 square miles, destroyed 13 homes and damaged others in the Oroville area of the northern Sacramento Valley. An</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/08/27/firework-thrown-car-window-allegedly-caused-destructive-california-wildfire/</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>27-08-2024</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>McDowell Mountain Regional Park closed due to wildfire near Fountain Hills</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>FOUNTAIN HILLS, AZ (AZFamily)— A wildfire prompted county officials to close McDowell Mountain Regional Park Wednesday afternoon and it remains closed as crews work toward full containment. The Arizona Department of Forestry and Fire Management said the McDowell Fire burned 90 acres and is 80% contained as of Thursday evening. #McDowellFireis 80% contained at 90 acres. The incident has been placed in monitor status with the crew returning to check it tomorrow.This will be the final update unless</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/08/21/mcdowell-mountain-regional-park-closed-due-fast-moving-wildfire-near-fountain-hills/</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>21-08-2024</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Railroad maintenance cause of summer’s destructive Rose Fire near Wickenburg</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>WICKENBURG, AZ (AZFamily)— A cause has been determined of a destructive wildfire earlier this summer near Wickenburg. On Monday, Arizona Department of Forestry and Fire Management spokesperson Tiffany Davila said investigators foundthe Rose Firewas caused by railroad maintenance operations. The 166-acre wildfire burned from June 12 to 17 on the east side of U.S. 60 and destroyed several structures and vehicles. Investigators found a section of cut railroad track from work along the BNSF rail lin</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/08/19/railroad-maintenance-found-be-cause-summers-destructive-rose-fire/</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>19-08-2024</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Bartlett Lake Marina reopens following nearby wildfires</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BARTLETT LAKE, AZ (AZFamily)—  c “The marina, the restaurant, the boat rentals, the boat club, everything is open on our point for the weekend,” said Bryan Church, the owner of Bartlett Lake Marina. The road in question is called Bartlett Dam Road. Church said wildfire closures are becoming more common on that road than they would like. “We’ve been closed five times this year which is very unusual,” said Church. “Lighting strike, that’s mother nature doing her thing can’t do anything about it.” </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/08/10/bartlett-lake-marina-reopens-following-nearby-wildfires/</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10-08-2024</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Farm Fire burning west of Prescott, evacuations lifted</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>PRESCOTT, AZ (AZFamily)—A neighborhood in Yavapai County is back home after being forced to evacuate because of a wildfire that started on Thursday. Officials said the Farm Fire has burned between 120 to 150 acres, roughly 25 miles west of Prescott, near the community of Hillside, and is spreading. The Yavapai County Sheriff’s Office said people on Iron Horse Road had to evacuate, but those orders were lifted around 6 p.m. The surrounding areas were told to prepare to evacuate, but officials sai</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/08/09/farm-fire-burning-west-prescott-evacuations-lifted/</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>09-08-2024</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Several fires burn in Tonto National Forest; recreation sites evacuated</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TONTO NATIONAL FOREST, AZ (AZFamily)—Crews are battling multiple fires that broke out in the Tonto National Forest during Sunday night’s thunderstorms. At this point, no buildings have burned, and no homes have been evacuated. However, the Tonto National Forest says it is prioritizing putting out the fires that have the potential to threaten homes or infrastructure. Recreation sites and campgrounds have been evacuated at Bartlett and Horseshoe lakes. Crews say the hot weather and steep, rugged t</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/08/05/several-fires-burn-tonto-national-forest-recreation-sites-evacuated/</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>05-08-2024</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Some residents placed in SET status due to 2 wildfires burning near Kingman</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>KINGMAN, AZ (AZFamily)— Severe thunderstorms across the state have caused multiple new fires to pop up, prompting residents to be prepared for evacuations. According to the Mohave County Sheriff’s Office, two new wildfires, deemed the Left Fork and Element fires, started north of Kingman on Tuesday evening. The wildfires were caused by erratic, gusty winds from passing thunderstorms. On Thursday morning, Bureau of Land Management officials said the Element Fire had grown to 3,986 acres. Firefigh</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/08/07/some-residents-placed-set-status-due-2-wildfires-burning-near-kingman/</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>07-08-2024</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Wally Fire leads to SET status for some Tonto Basin residents</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TONTO BASIN, AZ (AZFamily)— Some Tonto Basin residents have been placed on SET status due to a wildfire burning in the area. The Gila County Division of Emergency Managementhas issued a SET advisoryfor all residents on the west side of state Route 188 inTonto Basin. Residents in that area should prepare for possible evacuation. The advisory was issued due to the Wally Fire (previously called the Walnut Fire) that was started by lightning on Sunday. As of Monday night, the U.S. Forest Service say</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/08/05/wally-fire-leads-set-status-some-tonto-basin-residents/</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>05-08-2024</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>7,000 lightning strikes in northern Arizona keep fire crews busy</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>FLAGSTAFF, AZ (AZFamily)— With the largest ponderosa pine forest in the world, Coconino County has plenty of trees but these trees can become beacons for lightning strikes during monsoon storms. Flagstaff and surrounding areas were hit hard with storms over the last few days. Randi Shaffer, public affairs officer for the Coconino National Forest, said the monsoons bring lightning and 911 calls to the U.S. Forest Service. “Our dispatchers are pretty busy,” Shaffer said. “Over this past weekend, w</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/08/06/thousands-lightning-strikes-coconino-county-keep-fire-crews-busy/</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>06-08-2024</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SR 87 reopens, ‘SET’ status lifted as Sand Stone Fire continues to burn near Fountain Hills</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TONTO NATIONAL FOREST, AZ (AZFamily)— The southbound lanes of State Route 87 are open again after being closed since Sunday because of the Sand Stone Fire. The massive brush fire is currently burning thousands of acres northeast of Fountain Hills in the Tonto National Forest. As of Monday evening, the Sand Stone Fire had burned 27,390 acres with 82% containment. It was caused by lightning and is rapidly growing. The Maricopa County Sheriff’s Office put residents in Sunflower in the “SET” positio</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/07/30/sand-stone-fire-burns-23000-acres-near-fountain-hills-prompts-evacuation-preparations/</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>30-07-2024</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Lightning-caused wildfire closes north Scottsdale preserve</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SCOTTSDALE, AZ (AZFamily)— Crews are working to extinguish a wildfire near north Scottsdale that was caused by a lightning strike Wednesday night. The Ricky Fire is currently burning about 10 acres in the northern portion of the McDowell Sonoran Preserve, nearGranite Mountain Trailhead. It’s near the burn scars of the recentBoulder ViewandWildcatfires. The Arizona Department of Forestry and Fire Management was able to get containment on the fire Thursday morning, and they’re now mopping up hotsp</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/07/25/lightning-caused-wildfire-closes-north-scottsdale-preserve/</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>25-07-2024</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Arson suspect accused of starting Watch Fire near San Carlos arrested</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SAN CARLOS, AZ (AZFamily)— An arson suspect has been arrested, accused of starting a wildfire that left homes devastated and over 2,000 acres burned on theSan Carlos Apache Indian Reservationearlier this month. Officials say 22-year-old Keanu Dude was charged with arson in connection to theWatch Fire, which forced hundreds to evacuate on tribal land. TheSan Carlos Apache Police Department(SCAPD) and the Tribe’s Game &amp; Fish Rangers took Dude into custody on Tuesday, 13 days after the fire broke o</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/07/24/arson-suspect-accused-starting-watch-fire-near-san-carlos-arrested/</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>24-07-2024</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Some residents on ‘Set’ status as Romero Fire burns 6,900 acres in Pinal County</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>PINAL COUNTY, AZ (AZFamily)—Some residents must be prepared to evacuate as a wildfire continues to burn thousands of acres in Pinal County. As of Monday morning, the Romero Fire had burned around 7,000 acres and is 30% contained. It is located three miles southwest ofKearnyand 22 miles northwest of Mammoth. On Saturday night, the Pinal County Sheriff’s Office said that 3C Ranch residents had been placed on a ‘SET’ status and should be prepared to evacuate. Due to the#RomeroFireburning between Ke</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/07/20/pair-wildfires-burn-over-2000-acres-pinal-county/</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>20-07-2024</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Lightning sparks 3 new wildfires in Tonto National Forest near Cave Creek</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CAVE CREEK, AZ (AZFamily)—Crews are battling three new wildfires that ignited in the Tonto National Forest, and officials believe lightning is the cause. On Thursday, the Deer Fire started east of Horseshoe Lake and northwest of Bartlett Lake in the Mazatal Wilderness. Officials say the fire is burning around 100 acres of grass, brush and timber. People are urged to avoid part of the AZ Trail along the Mazatzal Divide Trail #23 as the fire is near the area. Authorities say smoke can be seen from</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/07/21/lightning-sparks-3-new-wildfires-tonto-national-forest-near-cave-creek/</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>21-07-2024</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Evacuations ordered as Black Fire burns thousands of acres in Tonto National Forest</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>PHOENIX (AZFamily)— Evacuation orders remain in place, and several forest areas are still blocked off as the Black Fire continues to burn thousands of acres in Tonto National Forest. According to the National Interagency Fire Center, the lightning-caused fire near the Tonto National Monument in Gila County has burned 11,102 acres since it was reported last Thursday, July 11. As of the morning of July 22, officials say it’s 85% contained. Several communities and recreation areas within Tonto Basi</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/07/14/evacuations-ordered-black-fire-burns-thousands-acres-tonto-national-forest/</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>14-07-2024</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Arizona attorney general calls on FEMA to recognize extreme heat, wildfire smoke as disasters</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>PHOENIX (AZFamily)— As an excessive heat watch takes effect on Friday in the Valley,Arizona Attorney General Kris Mayesand 13 other attorneys general are urging the federal government to declare wildfire smoke and extreme heat major disasters. The letter was sent to FEMA on Tuesday, and it claimed that the likelihood of high-severity extreme heat and wildfire smoke is increasing due in part to climate change. The 14 states are asking the federal agency to update its regulations to prepare for th</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/07/18/arizona-attorney-general-calls-fema-recognize-extreme-heat-wildfire-smoke-disasters/</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>18-07-2024</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Watch Fire 100% contained after burning over 2,000 acres in eastern Arizona</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>SAN CARLOS, AZ (AZFamily)— The Watch Fire is 100% contained after burning 2,162 acres on theSan Carlos Apache Indian Reservation. Over 400 people were ordered to evacuate, and the San Carlos Apache Tribe said at least13 homes were destroyed, leaving 75 people homeless. Officials are investigating arson as the suspected cause of the fire. Firefighters are continuing to patrol the area around the fire perimeter. Residents are asked to avoid burned structures due to hazardous materials that may hav</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/07/17/watch-fire-100-contained-after-burning-over-2000-acres-eastern-arizona/</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>17-07-2024</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Apex Fire burns 3,100 acres southwest of Grand Canyon; 40% contained</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COCONINO COUNTY, AZ (AZFamily)—Fire crews are battling a wildfire that has burned thousands of acres in northern Arizona. The Apex Fire has burned roughly 3,100 acres, about 23 miles southwest of the Grand Canyon. As of Tuesday evening, it was 40% contained. Around 50 firefighters are battling the blaze, and more resources have been called to help. The Arizona Department of Forestry and Fire Management said the fire is being fueled by pinyon pine, juniper and sagebrush. The#ApexFireburning west </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/07/15/apex-fire-burns-2000-acres-southwest-grand-canyon/</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>15-07-2024</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>San Carlos Apache Tribe resident sees destroyed home after wildfire ripped through community</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>GILA COUNTY, AZ (AZFamily)— Sheila Patten drove to her property in the San Carlos Apache Indian Reservation on Tuesday evening. It was the first time she’s seen what’s left of her home since theWatch Fireburned it down last week. Sheila said the roads were blocked, and she didn’t have a chance to take anything with her. “We just all stood up there in the road and watched it burn to ashes,” she said. “It’s heartbreaking. It’s too many memories. Even the kids’ pictures, our pictures (burned). It w</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/07/17/san-carlos-apache-tribe-resident-sees-destroyed-home-after-wildfire-ripped-through-community/</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>17-07-2024</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>United Food Bank launches emergency initiative to help San Carlos in aftermath of Watch Fire</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>SAN CARLOS, AZ (AZFamily)— TheSan Carlos Apache Tribein eastern Arizona is getting more help after the Watch Fire left dozens homeless. TheUnited Food Banksaid on Tuesday that it has launched an emergency initiative to fulfill the community’s need for food and water. The Mesa-based nonprofit will continue to provide extra food supplies through itsUSDAand Pantry+ programs and also ensure people have clean drinking water, officials said. Emergency food boxes will be delivered to people who can’t r</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/07/16/united-food-bank-launches-emergency-initiative-help-san-carlos-aftermath-watch-fire/</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>16-07-2024</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Freeman Fire burns 32,568 acres north of Tucson; 85% contained</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TUCSON, AZ (13 News)—Crews are starting to gain control of a fast-moving wildfire that ignited in southern Arizona. The Freeman Fire has burned around 32,568 acres and is 85% contained as of Wednesday morning. The Arizona Department of Forestry and Fire Management says crews have contained the fire along its north, east, southeast and northwest flanks. The blaze started on Thursday in the Black Mountains, about 16 miles south of Dudleyville. It was the result of two lightning strikes, which star</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/07/12/freeman-fire-burns-1750-acres-north-tucson/</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>12-07-2024</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Pius Fire burns almost 2,000 acres northeast of Payson; 77% contained</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PAYSON, AZ (AZFamily)— A wildfire has exploded in size to almost 2,000 acres burned as it rages through northern Gila County. The Pius Fire is burning about 20 miles northeast of Payson. The fire started in the Apache-Sitgreaves National Forests on Monday afternoon. As of Monday morning, the Pius Fire has burned approximately 1,999 acres and is at 77% containment. Officials say the smoke, which is visible from space, is expected to impact areas including Christopher Creek, Payson, Young, Forest </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/07/09/pius-fire-burns-400-acres-northeast-payson/</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>09-07-2024</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Watch Fire grows to over 2,100 acres in eastern Arizona; arson suspected</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>SAN CARLOS, AZ (AZFamily)— The San Carlos Apache Tribe has declared a state of emergency as a wildfire continues to burn 2,162 acres in eastern Arizona. The Watch Fire forced over 400 people to evacuate earlier this week, and has burned roughly 2,162 acres on theSan Carlos Apache Indian Reservation. On Monday morning, the Federal Emergency Management Agency (FEMA) authorized federal funds to be sent to Arizona to combat the fire. At the time the state submitted the request on Saturday, the Watch</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/07/11/wildfire-sparks-evacuations-san-carlos-eastern-arizona/</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>11-07-2024</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Arizona Humane Society sends team to help pets injured in the Watch Fire</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SAN CARLOS, AZ (AZFamily)— The Arizona Humane Society is stepping up to help those on the San Carlos Apache Indian Reservation after the devastatingWatch Fireleft dozens without homes and many injured animals. On Sunday, the organization sent its disaster team to San Carlos to help with medical care and sheltering evacuated pets. Currently, 15 dogs, six puppies and three cats are receiving care from staff. The disaster team is relieving the Healthy Tails Mobile Clinic team, who have been caring </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/07/14/arizona-humane-society-sends-team-help-pets-injured-watch-fire/</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>14-07-2024</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Hillside Fire burns about 800 acres near Congress; 88% contained</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>CONGRESS, AZ (AZFamily)— The Hillside Fire, which has burned hundreds of acres in western Yavapai County, is now 88% contained. The Arizona Department of Forestry and Fire Management says the Hillside Fire as burned 818 acres about 3 miles north of Congress, near Ghost Town Road. As of 12:30 p.m. on Friday, the fire is no longer threatening the community of Congress. The Yavapai County Sheriff’s Office has lifted the SET status for zones YCU-2444, YCU-2444, YCU-2396 and YCU-2450. In addition, ro</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/07/11/hillside-fire-burns-1200-acres-near-congress-evacuations-possible/</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>11-07-2024</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Forward progress stopped as Butte Fire burns near Apache Lake in Tonto National Forest</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>TONTO NATIONAL FOREST, AZ (AZFamily)— Firefighters are battling another wildfire that has sparked in Arizona this week. Officials said the Butte Fire started around 7:45 p.m. on Thursday near Apache Lake and northeast of Bronco Butte Mountain in the Tonto National Forest. The fire is between Fish Creek and Forest Road 79 leading towardApache Lake Marina and Resort. The wildfire is currently burning about 117 acres and officials say forward progress was stopped early Friday afternoon. The blaze i</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/07/12/butte-fire-burns-about-100-acres-near-apache-lake-tonto-national-forest/</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>12-07-2024</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Gemstone Fire burns 177 acres east of Kingman; 75% contained</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>KINGMAN, AZ (AZFamily)—Crews are starting to gain control of a wildfire burning near Kingman that has threatened over a hundred buildings and infrastructure. According to the Arizona Department of Forestry and Fire Management, the Gemstone Fire has scorched roughly 177 acres since it started on Thursday, 5 miles east of Kingman. As of Friday night, officials say the fire is 75% contained. Fire officials said the fire got some rain, and an engine crew will continue to patrol the fire on Saturday.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/07/12/gemstone-fire-threatens-150-buildings-east-kingman/</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>12-07-2024</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Duck Lake fire burns 31 acres in eastern Arizona</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>APACHE-SITGREAVES NATIONAL FORESTS (AZFamily)— A slow-moving wildfire has burned approximately 31 acres in eastern Arizona since its start last week. The Duck Lake fire was discovered on July 5 nearForest Roads 116 and 72in the Apache-Sitgreaves National Forests. Forest Service officials say it was sparked by lightning. The area where the wildfire is burning has a significant number of dead trees. As the fire moves, the Arizona Department of Forestry and Fire Management says the fire will most l</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/07/09/duck-lake-fire-burns-26-acres-eastern-arizona/</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>09-07-2024</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Residents return to ‘READY’ status as Shake Fire breaks out in Pinal County</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>KEARNY, AZ (AZFamily)— Evacuations were lifted in the Kearny area as firefighters stopped forward progress on the Shake Fire. The Shake Fire and the Ray Fire were both 100% contained on Thursday. The Pinal County Sheriff’s Office says all residents previously affected by the Shake and Ray fires were returned to READY status on Wednesday. All residents previously affected by the fires burning near Kearny have been returned to Ready status. Residents in the area north of Shake Road who were told t</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/07/10/some-return-home-after-being-evacuated-due-shake-fire-near-kearny-pinal-county/</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>10-07-2024</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Pinal County residents return home as Ray Fire burns near Kearny</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>KEARNY, AZ (AZFamily)— Authorities say Pinal County residents can now return home as a wildfire burns northwest ofKearny, and firefighters have made significant progress against the flames. The Shake Fire and the Ray Fire were both 100% contained on Thursday. Around 4:30 p.m. on Tuesday, crews said they stopped forward progress against the Ray Fire. They were still battling the fire on Wednesday morning, as it is still near homes. Authorities said the fire is human-caused, and as of Wednesday mo</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/07/09/communities-pinal-county-told-prepare-evacuation-due-ray-fire/</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>09-07-2024</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Why firefighters were delayed to house fires in Yavapai County community</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>PAULDEN, AZ (AZFamily)— There are renewed concerns after a fire earlier this week ripped through four homes in Paulden, a community about 25 miles north of Prescott. Since Paulden doesn’t have a fire department, a subscription fire service is available to respond to fires in the area. Central Arizona Fire and Medical Authority, or CAFMA, covers multiple municipalities in Yavapai County, including Paulden. The homes that burned yesterday did not pay to subscribe to that service, delaying fire cre</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/11/02/why-firefighters-were-delayed-house-fires-yavapai-county-community/</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>02-11-2024</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Wind-driven fire destroy four homes in northern Arizona community</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>PAULDEN, AZ (AZFamily)— Four families are left picking up the pieces after a fast-moving, wind-driven fire destroyed four homes on Thursday in the northern Arizona community of Paulden. The fire started in one home and the fast winds quickly spread into the three homes next to it onYellowstone Road near Naples Street. Paulden is about 25 miles north of Prescott. One victim said she only knew there was a fire because her neighbor started banging on her door, yelling at her to get out. Another tol</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/10/31/neighborhood-evacuated-after-multiple-homes-catch-fire-northern-arizona/</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>31-10-2024</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Man dies in house fire on Thanksgiving Day; wife, 7 children left without a home</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>COPPERAS COVE, Texas (KWTX/Gray News) - A house fire in Texas left one person dead and several family members without a home on Thanksgiving Day. According to the Copperas Cove Fire Department, crews responded to reports of a structure fire at about 4:30 a.m. in the 2100 block of Circle Drive. Arriving firefighters found smoke and flames coming from the front of the garage of a single-family home. They were also told that one resident was still in the house. Firefighters said the home was heavil</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/11/29/man-dies-house-fire-thanksgiving-day-wife-7-children-left-without-home/</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>29-11-2024</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Burned body identified as 23-year-old Yuma man</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>YUMA, AZ (AZFamily)— A burned body that was found in a bonfire near the Fort Yuma reservation has been identified. Investigators with the Imperial County Sheriff’s Office confirmed it was 23-year-old Jacob Sims, a Yuma man who was reported missing about two weeks ago. He was found in a neighborhood in Winterhaven, CA, just two miles north of the Arizona border. Investigators said a resident in the area noticed what looked like a body among the ashes of a bonfire. The coroner’s office with ICSO w</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/11/26/burned-body-identified-23-year-old-yuma-man/</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>26-11-2024</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Yuma residents upset about house fire they say could have been prevented</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">YUMA, AZ (AZFamily)— Yuma fire officials are investigating a house fire that burned a vacant home and dozens of cars on the property. It happened nearAvenue C and 16th Street. The fire nearly spread to nearby homes, and residents blame the code enforcement officials. Some residents believe the fire could have been prevented. “I called code compliance, I called three times. They never called me back. All my neighbors said they had called as well and they were never called back either,” said Ruth </t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/08/27/yuma-residents-upset-about-house-fire-they-say-could-have-been-prevented/</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>27-08-2024</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Yuma’s historic train depot demolished months after suspected arson</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>YUMA, AZ (AZFamily)—Monthsafter being set ablaze, one of Yuma’s oldest and most historical buildings is being demolished. The Southern Pacific Freight Depot was the first train depot ever in Arizona,burned down in a suspected arson fire this past March. The suspect, Angel Alvarado, remains in the Yuma County Jail awaiting trial. The fire was a significant loss to Yuma’s historic downtown core. “It’s been an iconic structure in Yuma since the late 1800s,” said Cathy Douglas with the Yuma Crossing</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.azfamily.com/2024/08/07/yumas-historic-train-depot-destroyed-fire-is-demolished/</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>07-08-2024</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Crews respond to structure fire near Carter Lake</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>OMAHA, Neb. (WOWT) - Omaha Fire Department crews battled a fire near Carter Lake Friday morning. The fire happed around 7 a.m. near 9th and Fort streets. OFD reports no injuries from the fire. Copyright 2024 WOWT. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.wowt.com/2024/11/29/crews-respond-structure-fire-near-carter-lake/</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>29-11-2024</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>One hospitalized after porch fire at North Omaha home</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>OMAHA, Neb. (WOWT) - On Wednesday, Omaha fire crews got a call to a house near 43rd and Spaulding shortly after 5 a.m.When crews arrived, they found smoke and flames coming from Marcell Moore’s front porch. “I didn’t know what it was all I heard was a boom and all I saw was a porch on fire,” Moore said.Moore told First Alert 6 News a friend came over to his home to fill up a power generator with gas inside his porch.Meanwhile, Moore was in his living room watching tv, before things lit up.. “[My</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.wowt.com/2024/11/27/firefighters-battling-flame-north-omaha-home/</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>27-11-2024</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>House fire causes over $250k in damage to West Omaha home</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>OMAHA, Neb. (WOWT) - Some Omaha firefighters spent the first few hours of Thanksgiving Day on the job tending to a blaze that caused more than a quarter-million dollars in damage. Crews were dispatched to a reported house fire in a neighborhood just south of 165th and Q Street around 3:30 a.m. Thursday. When they arrived, everyone had already evacuated the home, but the fire burned for nearly 45 minutes before being deemed under control, according to OFD. An investigator determined the fire to b</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.wowt.com/2024/11/28/house-fire-causes-over-250k-damage-west-omaha-home/</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>28-11-2024</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Man dies in house fire on Thanksgiving Day; wife, 7 children left without a home</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>COPPERAS COVE, Texas (KWTX/Gray News) - A house fire in Texas left one person dead and several family members without a home on Thanksgiving Day. According to the Copperas Cove Fire Department, crews responded to reports of a structure fire at about 4:30 a.m. in the 2100 block of Circle Drive. Arriving firefighters found smoke and flames coming from the front of the garage of a single-family home. They were also told that one resident was still in the house. Firefighters said the home was heavil</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.wowt.com/2024/11/29/man-dies-house-fire-thanksgiving-day-wife-7-children-left-without-home/</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>29-11-2024</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Control center fire shuts down half Mexico City subway lines</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>(AP) - MEXICO CITY - A fire in the control center of the Mexico City subway has killed one woman and sent 32 other people to the hospital while knocking out service on half of the subway lines in the city of 9 million inhabitants. The capital’s Metro system normally carries over 130 million passengers each month. The smoky fire hit the control center building in downtown Mexico City early Saturday, and while it was brought under control, half the system remained out of service late Saturday. The</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.wowt.com/2021/01/10/control-center-fire-shuts-down-half-mexico-city-subway-lines/</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>10-01-2021</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Russia: 7 die in fire at nursing home in western Siberia</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>(AP) - MOSCOW - Russian authorities say seven people have died in a fire at a nursing home in western Siberia. The fire that broke out Saturday at the private home for the elderly also injured a resident, according to Russia’s top criminal investigation agency. Police detained the care home’s owner on charges of violating safety regulations. Local officials said the home located in the Tyumen region town of Borovsky wasn’t registered with authorities. Copyright 2021 The Associated Press. All rig</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.wowt.com/2021/01/09/russia-7-die-in-fire-at-nursing-home-in-western-siberia/</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>09-01-2021</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Fire departments battle wildfire northeast of Lincoln</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>LINCOLN, Neb. (KOLN) - Over a dozen fire departments responded to a wildfire near North 84th Street and Branched Oak Road Sunday afternoon. Firefighters were called out to the area just before 2 p.m. According to Waverly Fire Chief Ryan Mueller, 250-300 acres of harvested and standing crops were burned in the fire. Mueller said the fire is believed to be related to a combine bearing overheating while a field was being harvested. At around 3 p.m., law enforcement and fire crews began evacuating r</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.wowt.com/2024/10/13/fire-departments-respond-vegetation-fire-north-lincoln-several-houses-evacuated-along-branched-oak-road/</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>13-10-2024</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Fire destroys historic Alvo home</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALVO, Neb. (KOLN) - A fire destroyed a home in Alvo on Friday, according to the Eagle Volunteer Fire Department. Crews were called to the scene at 12:32 p.m. and found the house fully engulfed. Firefighters knocked down the fire from the outside before moving in to finish putting it out. According to the fire department, the fire was brought under control in about an hour. The homeowner and two dogs safely escaped the fire, while firefighters rescued a ball python from the home The cause of the </t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.wowt.com/2024/11/22/fire-destroys-historic-alvo-home/</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>22-11-2024</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>State agency investigating fatal house fire in southeast Nebraska</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>HUMBOLDT, Neb. - TheNebraska State Fire Marshal’s Agencyis investigating after a fatal fire on Thanksgiving morning in rural eastern Nebraska. The Lincoln Journal Star reports that the fire was reported just after 4:30 a.m. in Humboldt. The home was fully engulfed in flames when firefighters arrived. A body was found in the home. No further information was released. Humboldt is in Richardson County, 60 miles southeast of Lincoln. Copyright 2021 The Associated Press. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.wowt.com/2021/11/26/fire-agency-investigating-fatal-house-fire-southeast-nebraska/</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>26-11-2021</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Illinois firefighter accused of staging a house fire to cover up a murder — and a secret</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByNikki Battiste,Ruth Chenetz,Emily Wichick Hourihane Updated on:  December 1, 2024 / 1:08 AM CST/ CBS News Before the fire that setMelissa Lamesch's home ablaze on Nov. 25, 2020, the day had started with excited anticipation. Melissa was due to give birth to a baby boy in just two days, and Thanksgiving was a day away. Cassie Baal: She was gonna have a nice private Thanksgiving with dad. So, I gave her a call the morning of the 25th and we talked for about two-and-a-half hours. C</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/chicago/news/melissa-lamesch-matthew-plote-illinois-firefighter-accused-of-staging-house-fire-to-cover-up-murder-48-hours/</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>01-12-2024</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Jeannette neighbor rescues 2 children and mom from fire that killed 5 people</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByLauren Linder Updated on:  March 21, 2024 / 1:22 AM EDT/ CBS Pittsburgh JEANNETTE, Pa. (KDKA) -- A Westmoreland County community is in mourning aftera house fire killed a father and four childrenearly Wednesday morning. A total of eight people were inside when it started, and the Jeannette fire chief said three of them got out thanks to the help of a brave neighbor who ran towards the flames. Jack Mull is still processing what happened to his neighbors when he stepped outside an</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/pittsburgh/news/jeannette-neighbor-rescues-children-from-fire-guy-street/</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>21-03-2024</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>3 killed, 14 injured in Brooklyn house fire, FDNY says</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Watch CBS News ByChristina Fan,Jenna DeAngelis,Shosh Bedrosian Updated on:  November 12, 2023 / 11:30 PM EST/ CBS New York NEW YORK-- TheNYPDconfirmed three people died in a tragic house fire inBrooklynon Sunday morning. It happened inCrown Heights, where several other people were able to escape from the intense flames. "We were home sleeping and all I heard was my mom saying, 'Fire! Fire! Get out! Fire! Fire!,'" next-door neighbor Abigail Cepada said. Cepada shot video after she and her family </t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/newyork/news/brooklyn-three-alarm-fire-injures-17-including-1-firefighter/</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>12-11-2023</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>FDNY: Firefighter injured battling blaze at Brooklyn storage unit containing e-bikes, lithium-ion batteries</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByNatalie Duddridge Updated on:  October 22, 2023 / 11:33 PM EDT/ CBS New York NEW YORK-- A firefighter was hurt battling a blaze Sunday inside a storage warehouse inSunset Park,Brooklyn, where hundreds ofe-bikesand other mobility devices were being stored. CBS New York spoke to nearby residents who are worried about their safety. A lot of people were alarmed to see just how many bikes and batteries were stored inside the facility. Most of the street has since been cleaned up, but</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/newyork/news/fdny-firefighter-injured-battling-blaze-at-brooklyn-storage-unit-containing-e-bikes-lithium-ion-batteries/</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>22-10-2023</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Notre Dame rebuilt, reverently restored 5 years after world watched French cathedral burn</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByBill Whitaker December 1, 2024 / 7:38 PM EST/ CBS News Next Sunday, the doors of the Cathedral of Notre Dame in Paris will open to the public for the first time since April 2019, when a devastatingfire nearly destroyedthe great gothic church. Two formal masses will be celebrated, and then as many as 40,000 visitors a day will begin streaming through. What they will see is something of a modern miracle. Notre Dame has been rebuilt and restored five years after the world watched i</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/news/see-inside-notre-dame-rebuilt-restored-after-fire-60-minutes-transcript/</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>01-12-2024</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Despite fire, Notre Dame cross and altar still standing</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByChristopher Brito Updated on:  April 16, 2019 / 3:18 PM EDT/ CBS News Photos from inside Notre Dame cathedral showed its cross and altar apparently still intact even after a devastating fire ravaged the 850-year-old landmark in Paris. Firefighters officiallyextinguished the blazeearly Tuesday after a 12-hour battle with the flames. The images captured by Reuters' Philippe Wojazer showed the church's interior as debris was still smoldering early Tuesday. In one of the pictures, s</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/news/notre-dame-cathedral-on-fire-crucifix-altar-cross-paris/</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>16-04-2019</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Notre Dame spire and roof collapse as fire rages at iconic cathedral in Paris</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Watch CBS News Updated on:  April 15, 2019 / 6:50 PM EDT/ CBS News Follow along with our live updates here. Monday's earlier story is below. The iconic spire at the top of the Notre Dame Cathedral in Paris has collapsed after a major fire broke out Monday. Video showed part of the roof of the cathedral collapsing into itself as the fire rages on. "Everything is burning, nothing will remain from the frame," Notre Dame spokesperson Andre Finot told French media, according to the Associated Press. </t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/news/notre-dame-cathedral-fire-today-2019-04-15/</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>15-04-2019</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Jacqueline Montanaro killed in Hazlet house fire after running back inside to try to rescue daughter</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByChristina Fan January 16, 2023 / 8:21 PM EST/ CBS New York HAZLET, N.J.-- A Hazlet woman and her daughter were killed in a tragic house fire. Family and friends said the women spent her last moments alive fighting to save her child. Jacqueline Montanaro made it out of the house, but realized her 6-year-old girl was still inside. The smoke was so thick, her husband struggled to get through the door. But she ran back inside. "We're just so upset about it. There's no words. Like wh</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/newyork/news/jacqueline-montanaro-killed-in-hazlet-house-fire-after-rushing-back-inside-to-try-to-rescue-daughter/</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>16-01-2023</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>8 found dead after Oklahoma house fire, police say</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Watch CBS News BySophie Reardon Updated on:  October 27, 2022 / 11:31 PM EDT/ CBS News Eight people were found dead following a house fire in Broken Arrow, Oklahoma, on Thursday, police said. The incident is being investigated as a homicide. Just after 5 p.m. local time, the Broken Arrow Police Departmenttweetedthat it was responding to a "structure fire with multiple fatalities," and later confirmed that eight people were found dead at the home. "This is a complex scene, this fire was a large f</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/news/oklahoma-house-fire-broken-arrow-deaths/</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>27-10-2022</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>6 found dead after Wisconsin apartment fire suffered gunshot wounds, police say</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Watch CBS News October 24, 2022 / 9:34 PM EDT/ CBS/AP Six people who were found dead following an apartment fire in Wisconsin last week were each found to have suffered a single gunshot wound, police said Monday. Connor McKisick, one of the people who was found dead, had a self-inflicted gunshot wound, police said. "The details and context of all the other individual's wounds are still under investigation," said Hartland police chief Torin Misko." Misko also said that there was "evidence of an i</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/news/wisconsin-fire-deaths-gunshot-wounds/</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>24-10-2022</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Lithium-ion battery started deadly house fire in Queens, FDNY says</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByJennifer Bisram Updated on:  January 22, 2023 / 12:24 AM EST/ CBS New York NEW YORK-- Investigators say a lithium-ion battery caused a fire that killed aQueensman late Friday night. Bright orange flames engulfed a three-story private home on 89th Street in East Elmhurst just before midnight. Dozens of firefighters worked quickly to put out the blaze and rescue families who were trapped inside. At least one person in the home and one firefighter were brought out on stretchers. "A</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/newyork/news/queens-man-dies-in-overnight-house-fire-3-others-injured-jackson-heights/</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>22-01-2023</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Semi-trailer catches fire Thursday morning prompting the State Park Dr. off-ramp to close, now reopened; CHP</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>SANTA CRUZ, Calif. (KION-TV) -- The CHP announced Thursday that the northbound Highway 1 State Park Dr. off-ramp is now open following a semi-trailer fire that forced the exit to close. Cleaning crews were on scene early Thursday morning picking up garbage that littered the shoulder of the highway after the accident. Jump to comments ↓ I’ve been an international professional writer and performer for over 25 years. With a background in journalism, creative writing, dance and aerial, I find the in</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://kion546.com/news/2024/11/21/semi-trailer-catches-fire-thursday-morning-prompting-the-state-park-dr-off-ramp-to-close-now-reopened-chp/</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>21-11-2024</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Fire that engulfed Notre Dame cathedral exposes long-hidden secret inside Paris landmark</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Watch CBS News March 16, 2023 / 10:02 AM EDT/ CBS/AFP Thefire that engulfed Notre-Damefour years ago has revealed a long-hidden secret about the Paris landmark: it was the first Gothic cathedral in which iron staples were used extensively throughout construction. It took near destruction and a massive restoration project which is still in progress for a team of archaeologists to discover the iron reinforcements. The construction of the famous cathedral in the heart of the French capital began in</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/news/notre-dame-fire-exposes-long-hidden-iron-inside-paris-landmark/</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>16-03-2023</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Four children and one adult dead after fire in Jeannette, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Watch CBS News ByMike Darnay,Jennifer Borrasso,Erika Stanish,Shelley Bortz,Lauren Linder,Heather Lang Updated on:  March 21, 2024 / 1:21 AM EDT/ CBS Pittsburgh JEANNETTE, Pa. (KDKA) -- Four children and their dad are dead following a late-night house fire in Jeannette, according to the Westmoreland County coroner. There were eight people, two parents and their six small children, inside the home on Guy Street when the fire broke out around midnight on Wednesday. The coroner identified those who </t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/pittsburgh/news/jeannette-deadly-house-fire-several-unaccounted-for-guy-street/</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>21-03-2024</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Dog and 5 cats missing after garage fire southeast of Denver</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByAusten Erblat December 1, 2024 / 2:20 PM MST/ CBS Colorado Firefighters in Colorado extinguished a garage fire and the people inside the Arapahoe County home have been safely removed but two sheriff's deputies and a firefighter were evaluated for injuries. And now, South Metro Fire Rescue says a dog and five cats are unaccounted for. The fire was first reported around noon in the 4800 block of South Gibraltar Lane in Centennial. By 1 p.m., South Metro Fire Rescue said the fire w</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/colorado/news/dog-cats-missing-arapahoe-county-garage-fire/</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>01-12-2024</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>East Lansdowne, Pa. shooting, fire on Lewis Avenue caught on these videos from a neighbor</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByKim Hudson,Joe Brandt,Fletcher Rumbaugh,Wakisha Bailey,Jan Carabeo Updated on:  February 8, 2024 / 7:30 PM EST/ CBS Philadelphia EAST LANSDOWNE, Pa. (CBS) -- Videos fromLewis Avenue in East Lansdowneshow a police officer in the street after being shot, and other officers coming to his rescue, with one giving him cover with a ballistic shield. The harrowing videos were filmed by a neighbor Wednesday after police arrived at a home in the Delaware County town responding to a 911 ca</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/philadelphia/news/lewis-ave-east-lansdowne-pa-shooting-fire-police/</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>08-02-2024</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>1 dead, 1 injured after rowhome fire in North Philadelphia early Saturday morning, police say</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByTaleisha Newbill,Matthew Cavallo November 30, 2024 / 5:27 PM EST/ CBS Philadelphia A man has died and a woman was taken to a hospital following a rowhome fire in North Philadelphia early Saturday morning, police said. Philadelphia police and Philadelphia fire crews responded to a rowhome on the 2400 block of North 17th Street right before 4:30 a.m., according to a news release from police. Heavy smoke and flames were coming from the home when authorities arrived. Police said a m</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/philadelphia/news/fatal-fire-rowhome-fire-north-17th-street/</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>30-11-2024</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Notre Dame's new spire revealed in Paris, marking a milestone in cathedral's reconstruction after fire</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Watch CBS News February 13, 2024 / 4:51 PM EST/ CBS/AP Scaffolding that covered the top ofNotre Dame cathedralfollowing a devastating fire in April 2019 is being removed, marking a milestone in itsreconstruction. As the shell at the summit has been taken down in recent days, it has revealed the cathedral's new spire for the first time, adorned with a golden rooster and cross, offering a glimpse of the building's expected appearance upon completion. People around the world havepledged more than $</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/news/paris-notre-dame-cathedral-new-spire-revealed-after-fire/</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>13-02-2024</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>FDNY: Lithium-ion battery fire leaves 5 hurt, including 2 children, in Bushwick, Brooklyn</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByCBS New York Team Updated on:  October 17, 2023 / 12:42 PM EDT/ CBS New York NEW YORK --Five people were injured when alithium-ion batterycaused an early morning fire Tuesday in Brooklyn, fire officials say. The flames broke out around 4:45 a.m. at a seven-story building on Menahan Street near Central and Wilson avenues inBushwick. FDNYofficials said they were faced with heavy fire and smoke in a second floor apartment. Three of the victims were in that apartment, two others wer</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/newyork/news/5-people-treated-for-smoke-inhalation-after-early-morning-fire-in-brooklyn-lithium-ion-battery-found-inside/</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>17-10-2023</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Vehicle fire outside of Baltimore City Hall being investigated as arson, police say</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByJT Moodee Lockman Updated on:  November 29, 2024 / 11:16 PM EST/ CBS Baltimore BALTIMORE -- A vehicle fire that ignited in front of Baltimore City Hall on Thursday night is now being investigated as an arson, according to police. Officers said they responded to the 400 block of East Fayette Street around 9:41 a.m. for a reported vehicle on fire. Once on the scene, officers found a city-owned vehicle in flames. Baltimore firefighters also responded to the scene and extinguished t</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/baltimore/news/city-hall-vehicle-fire-arson-investigation/</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>29-11-2024</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Notre Dame Cathedral fire in Paris destroys iconic spire</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Watch CBS News Updated on:  April 16, 2019 / 1:39 AM EDT/ CBS News Editor's note:Follow our latest coverage here. Monday's original story appears below. The iconic spire at the top of the Notre Dame Cathedral in Paris collapsed after a major fire broke out Monday evening. Video showed part of the roof of the cathedral collapsing onto itself. The flames were under control but still not extinguished, French Junior Interior Minister Laurent Nunez told a Tuesday morning news conference, the Reuters </t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/live-news/notre-dame-cathedral-fire-paris-collapse-live-updates-today-2019-04-15/</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>16-04-2019</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Notre Dame was undergoing $6.8 million renovation when massive fire broke out</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Watch CBS News Updated on:  April 15, 2019 / 6:56 PM EDT/ CBS/AP Notre Dame Cathedralwas undergoing $6.8 million in renovations on the church's spire and its 250 tons of lead when a massive fire engulfed the Paris landmark on Monday. Paris police said the cause of the blaze at the 12th-century cathedral was unknown, but the fire was "potentially linked" to the renovation work being carried out at the site, French media quoted the Paris fire brigade saying. The cathedral, which is visited by 13 m</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/news/notre-dame-cathedral-fire-notre-dame-68-million-renovation-massive-fire-today/</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>15-04-2019</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Fire burns Notre Dame Cathedral in Paris</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByDavid Morgan Updated on:  April 16, 2019 / 9:21 AM EDT/ CBS News Flames and smoke are seen billowing from the roof at Notre Dame Cathedral in Paris on April 15, 2019. Notre Dame cathedral burns in Paris, France, Monday, April 15, 2019. Massive plumes of yellow-brown smoke filled the air and ash fell upon tourists and others around the island in the center of Paris. Flames are seen through a destroyed stained glass window as the Notre Dame Cathedral burns in Paris, April 15, 2019</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/pictures/fire-burns-notre-dame-cathedral-in-paris/</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>15-04-2019</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>$1 billion may not be enough to cover the cost of rebuilding Notre Dame Cathedral, spokesman says</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Watch CBS News April 20, 2019 / 11:05 AM EDT/ CBS News People around the world havepledged more than $1 billionto rebuildNotre Dame.But according to a spokesman for the cathedral, that still might not be enough to cover it. "We don't know if it's enough or not," Andre Finot told CBS News' Roxana Saberi. "You can say it's crazy to have a billion euros but we don't know. Maybe the cost is two or three billion." The Paris prosecutor's office is urging people who are donating money tobeware of scams</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/news/notre-dame-cathedral-fire-spokesperson-1b-raised-still-may-not-cover-rebuilding/</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>20-04-2019</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>France vows to rebuild Notre Dame Cathedral after devastating fire</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Watch CBS News Updated on:  April 17, 2019 / 1:53 AM EDT/ CBS News The iconic spire at the top of Notre Dame Cathedral in Paris collapsed after amajor fire broke out Monday evening. Video showed part of the roof of the cathedral collapsing onto itself. The flames were finally declared out on Tuesday morning, according to a spokesman for the Paris fire service. Gabriel Plus said Tuesday morning that "the entire fire is out," and that the emergency services were "surveying the movement of the stru</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/live-news/notre-dame-cathedral-fire-extinguished-paris-landmark-gutted-live-updates-04-16-2019/</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>17-04-2019</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>A brave chaplain and a human chain saved holy relics from Notre Dame Cathedral fire</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Watch CBS News Updated on:  April 17, 2019 / 6:46 AM EDT/ CBS News Paris' Deputy Mayor for Tourism and Sports, Jean-Francois Martins told "CBS This Morning" on Tuesday that people on the scene jumped into action to salvage the trove of art and artifacts housed in Notre Dame Cathedral as a devastatingfire engulfed the ancient buildingthe previous evening. "We made a human chain, with our friends from the church... to get, as quick as possible, to get all the relics," he said, noting that the Crow</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/news/notre-dame-cathedral-fire-heroes-human-chain-crown-of-thorns-blessed-sacrament/</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>17-04-2019</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>8-year-old girl dies after house fire in Queens</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByAlecia Reid Updated on:  September 17, 2022 / 11:20 PM EDT/ CBS New York NEW YORK-- Investigators inQueenssay an e-bike sparked a house fire that killed an 8-year-old girl and injured two other people Saturday. As CBS2's Alecia Reid reports, within minutes of getting the call around 7:30 a.m., firefighters rushed to put out the blaze at the home on 130th Street inCollege Point. Eight-year-old Stephanie Villa Torres was in the third-floor apartment at the time of the fire. The yo</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/newyork/news/8-year-old-girl-dies-house-fire-queens-fdny/</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>17-09-2022</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>FDNY: 200 lithium ion batteries found after fire breaks out in Hell's Kitchen building</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByThalia Perez June 18, 2022 / 6:37 PM EDT/ CBS New York NEW YORK-- Residents were forced from their homes Saturday after a fire broke out in aHell's Kitchenapartment building. Firefighters say one person suffered minor injuries, but fortunately, no one was seriously injured. Crews were called to the building on 11th Avenue near West 52nd Street around 11:15 a.m. Neighbors say some good Samaritans jumped into action, ringing buzzers and yelling so everyone knew to get out. "We did</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/newyork/news/hells-kitchen-apartment-fire-lithium-ion-batteries/</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>18-06-2022</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>100 downtown LA residents affected by fire at apartment building, authorities say</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByKCAL News Staff Updated on:  November 30, 2024 / 12:44 PM PST/ KCAL News At least 100 people were affected by a fire at an apartment building in downtown Los Angeles Saturday morning, all of them residents of the building, according to authorities. In an alert just before 12:30 a.m., the Los Angeles Fire Department said firefighters discovered several transformers burning in a yard at the building, located in the 500 block of South San Julian Street near the LA Rescue Mission, a</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/losangeles/news/100-downtown-la-residents-affected-by-fire-at-apartment-building-authorities-say/</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>30-11-2024</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Fire breaks out at Downtown Miami hotel restaurant, filling Biscayne Boulevard with smoke</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByHunter Geisel Updated on:  December 1, 2024 / 7:22 PM EST/ CBS Miami MIAMI—   Smoke filled Downtown Miami after a kitchen fire broke out at a hotel restaurant on Sunday afternoon. Just after 12:45 p.m., City of Miami Fire-Rescue was called out to reports of a kitchen fire at the EPIC Hotel restaurant Zuma on 270 Biscayne Blvd. Upon arrival, crews found smoke coming from an exterior exhaust at the hotel, prompting firefighters to call for additional resources. Firefighters were a</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/miami/news/fire-breaks-out-at-downtown-miami-hotel-restaurant-filling-biscayne-boulevard-with-smoke/</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>01-12-2024</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Trailer hauling antique car catches fire on Highway 68</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MONTEREY COUNTY, Calif. (KION-TV) -- Monterey Police and Fire agencies have Highway 68 shut down in both directions near York Road after a large trailer caught fire on Wednesday night. Video of the aftermath of the fire from our photographer at the scene shows the trailer appears to have been hauling an antique car. People are being asked to avoid the area as of 7 p.m. on Wednesday night. We're reaching out to Monterey Police and Fire for any word on injuries. This is a developing story Jump to </t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://kion546.com/news/top-stories/2024/09/04/trailer-hauling-antique-car-catches-fire-on-highway-68/</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>04-09-2024</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Million dollar rare car destroyed in fire after showcasing at Pebble Beach’s Concours d’Elegance</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>PEBBLE BEACH, Calif. (KION-TV) -- The Scott Grundfor Company based out of Arroyo Grande announced that a 1979 Ford Ghia Probe I Prototype had been destroyed in an accident that happened on the highway late on Sunday after featuring the car at the Pebble Beach Concours d’Elegance. "We are a family oriented company, and it feels like we have lost a member of our family today," wrote the vehicle restoration company onInstagram Monday. "We are incredibly grateful that our team member driving the tra</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://kion546.com/news/car-week/2024/08/19/million-dollar-rare-car-destroyed-in-fire-after-showcasing-at-pebble-beachs-concours-delegance/</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>19-08-2024</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Truck carrying 44,000 pounds of chickpeas catches fire in Death Valley</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>This material may not be published, broadcast, rewritten,
+      or redistributed. ©2024 FOX News Network, LLC. All rights reserved.
+      Quotes displayed in real-time or delayed by at least 15 minutes. Market data provided byFactset. Powered and implemented byFactSet Digital Solutions.Legal Statement. Mutual Fund and ETF data provided byRefinitiv Lipper. Fox News Flash top headlines are here. Check out what's clicking on Foxnews.com. A truck carrying 44,000 pounds of chickpeas burst into flames</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>http://www.foxnews.com/us/truck-carrying-44000-pounds-chickpeas-catches-fire-death-valley</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>21-11-2023</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Electrical short eyed as possible Notre Dame blaze cause, report says - live updates</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Watch CBS News April 19, 2019 / 5:42 AM EDT/ CBS/AP Paris police investigators think anelectrical short-circuit most likely caused the fire at Notre Dame Cathedral, a police official said Thursday, as France paid a daylong tribute to the firefighters who saved the world-renowned landmark. A judicial police official told The Associated Press investigators made an initial assessment of the cathedral Wednesday but don't have a green light to search Notre Dame's charred interior because of ongoing s</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/live-news/electrical-short-eyed-as-possible-notre-dame-blaze-cause-report-says-live-updates/</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>19-04-2019</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Massive fire destroys longtime Fort Worth adult entertainment club Baby Dolls</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Watch CBS News ByCaroline Vandergriff Updated on:  July 17, 2024 / 9:52 PM CDT/ CBS Texas FORT WORTH —A massive fire destroyed a well-known adult entertainment club in Fort Worth Wednesday morning. Baby Dolls, located on FM 157 near Trinity Boulevard, has been in operation for nearly 50 years. According to the Fort Worth Fire Department, the 911 call about the fire came in around 9:10 a.m. and firefighters were on the scene five minutes later. It wasn't long after that when the back wall of the </t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/texas/news/massive-fire-destroys-longtime-fort-worth-adult-entertainment-club-baby-dolls/</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>17-07-2024</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Photos show massive fire at Riley's Pour House in Carnegie</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Watch CBS News ByMadeline Bartos November 14, 2024 / 3:33 PM EST/ CBS News Firefighters battled a massive fire at Riley's Pour House, a popular Irish pub in Carnegie, on Nov. 14, 2024. Firefighters battled a massive fire at Riley's Pour House, a popular Irish pub in Carnegie, on Nov. 14, 2024. Firefighters battled a massive fire at Riley's Pour House, a popular Irish pub in Carnegie, on Nov. 14, 2024. Firefighters battled a massive fire at Riley's Pour House, a popular Irish pub in Carnegie, on </t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/pittsburgh/pictures/photos-rileys-pour-house-fire-carnegie/</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>14-11-2024</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Historic St. Paul bar reopens after vehicle collides with electrical transformer, causes fire</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByWCCO Staff,Jason Rantala,Frankie McLister Updated on:  December 1, 2024 / 5:59 PM CST/ CBS Minnesota ST. PAUL, Minn. —The historic St. Paul bar, McGovern's, sustained some damage after a vehicle collided with an electrical transformer, causing a fire Friday night. St. Paul police are looking for a driver who ran away after the crash. "All of a sudden, I just saw two giant fireballs," said Gayle Winegar, who lives on Cathedral Hill in St. Paul. St. Paul police say those fireballs</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/minnesota/news/st-paul-bar-sustains-damage-from-fire-following-car-crash/</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>01-12-2024</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Sawyer Co Sheriff Asks For Publics Help ID'ing Arson Suspect After 6 Fires</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByAdam Duxter November 28, 2024 / 6:24 PM CST/ CBS Minnesota EXELEND, Wis. —The Sawyer County Sheriff's Office is asking for the public's help in identifying a serial arsonist, after they suspect the person set six fires in the span of ten days. The first fires went up in the early morning of November 18 – two homes, one in the town of Meteor and another in the town of Radisson, are considered total losses. No one was inside either home at the time. That morning, a third fire dama</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/minnesota/news/sawyer-county-arsons-wisconsin/</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>28-11-2024</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Notre Dame Cathedral blaze prompts nearly $1 billion in pledges</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Watch CBS News Updated on:  April 17, 2019 / 9:07 AM EDT/ CBS News Paris --After a fire that raged for at least 12 hours, Notre Dame Cathedral stood damaged but defiant Wednesday and the cross on the church's altar, though buried in debris, was almost shining, reports CBS News' Roxana Saberi. Almost $1 billion has beenraised to rebuildthe iconic monument, the Associated Press reported, and French Prime Minister Edouard Philippe announced an international competition for architects to rebuild the</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/news/notre-dame-cathedral-fire-billion-dollars-pledges-donations/</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>17-04-2019</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Brooklyn Heights fire forces evacuations during Thanksgiving dinner</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByZinnia Maldonado,Lori Bordonaro Updated on:  November 28, 2024 / 11:30 PM EST/ CBS New York NEW YORK-- Thanksgiving meals were interrupted by flames in Brooklyn after a manhole fire spread to a building, prompting emergency evacuations. Residents in Brooklyn Heights were forced to improvise their holiday plans because of high carbon monoxide levels in the vicinity of their homes on Remsen Street. "It's scary seeing flames coming up in front of your house," James Deutsch said. Ac</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/newyork/news/brooklyn-heights-manhole-fire-thanksgiving-fdny/</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>28-11-2024</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>FDNY: E-bike shop at scene of deadly overnight fire was issued past violations</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Watch CBS News ByAli Bauman,Alice Gainer,Elijah Westbrook Updated on:  June 20, 2023 / 11:35 PM EDT/ CBS New York NEW YORK--Four people were killed and two are fighting for their lives after a fire at an e-bike repair shop inChinatownon Tuesday morning spread to the apartments above. TheFDNYsays it issued several summonses to the shop over the last two years for the number of e-bike batteries that were inside and plugged in. CBS2 has also learned firefighters had to put out a smoldering battery </t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/newyork/news/4-people-killed-2-others-critically-hurt-when-fire-breaks-out-at-e-bike-shop-in-lower-manhattan/</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>20-06-2023</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>At least 4 dead and 2 critically hurt after overnight fire in NYC e-bike repair shop</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByBrian Dakss,Aliza Chasan Updated on:  June 20, 2023 / 7:42 PM EDT/ CBS News At least four people are dead and five injured after a fire in an e-bike repair shop in lower Manhattan early Tuesday, authorities said. Two of the injured were reported in critical condition. FDNY Deputy Assistant Chief John Sarrocco said firefighters responding to a 12:15 a.m. call found flames in HQ Ebike Repair on the first floor of the six-story building and put them out, but heavy smoke spread thro</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/news/fatal-fire-nyc-e-bike-repair-store/</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>20-06-2023</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Elkton trailer fire claims life of woman, two dogs; Cause under investigation</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByAndrew Adeolu November 30, 2024 / 8:35 PM EST/ CBS Baltimore BALTIMORE - A tragic trailer fire in Elkton claimed the lives of a woman and two dogs Friday night, according to police. Firefighters from Singerly Fire Company and nearby departments were dispatched to 1936 East Old Philadelphia Road just before 9:00 p.m. after receiving reports of a travel trailer on fire. UPDATE - Investigators have cleared the scene. While the cause of the fire remains under investigation, there is</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/baltimore/news/elkton-trailer-fire-woman-two-dogs-cause-under-investigation/</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>30-11-2024</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>New Yorkers Pray For Paris Following Devastating Fire At Notre Dame Cathedral</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Watch CBS News April 16, 2019 / 11:05 PM EDT/ CBS New York NEW YORK (CBSNewYork) –New Yorkers say they'rekeeping Paris in their prayersfollowing Monday's devastating fire at Notre Dame Cathedral. Gov. Andrew Cuomo announced One World Trade Center's spire will be lit in the colors of the French flag Tuesday night in solidarity with the people of France and the Catholic community. "Our hearts ached as we watched a devastating fire ravage one of the world's most sacred and celebrated religious monu</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://newyork.cbslocal.com/2019/04/16/new-yorkers-pray-for-paris-follow-notre-dame-cathedral-fire/</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>16-04-2019</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>What was saved — and what was lost — in the Notre Dame Cathedral fire</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Watch CBS News ByChristopher Brito Updated on:  April 16, 2019 / 7:01 PM EDT/ CBS News As the smoke began to clear from the devastatingfire at Paris' Notre Dame cathedral,the world's attention shifted to the irreplaceable collection of artifacts and cultural items inside the more than 800-year-old landmark. While some of the priceless collection was lost forever in the flames, other pieces were spared. Here's a rundown of what remains and what does not. The cathedral's most precious relic — the </t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/news/notre-dame-cathedral-fire-what-was-saved-lost-crown-of-thorns-tunic-windows/</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>16-04-2019</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>'Mary, dry our tears': French priests respond to Notre-Dame blaze</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>ByCourtney Mares Paris, France, Apr 16, 2019 / 11:00 am Father Pierre Amar was praying in Notre-Dame de Paris at 5 p.m. Monday evening to prepare spiritually for the Easter Triduum; hours later he was ringing the "funeral bells" at his parish to mourn the flames consuming the "mother of all the cathedrals in France." Hearing the bells, Amar's parishioners came to their church in Versailles, to pray the rosary together as Notre-Dame burned. "The Cathedral of Notre-Dame has a particular place in o</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://www.catholicnewsagency.com/news/mary-dry-our-tears-french-priests-respond-to-notre-dame-blaze-54268</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>16-04-2019</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Centuries of history burned in devastating Notre Dame fire</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByCarter Evans Updated on:  April 15, 2019 / 7:06 PM EDT/ CBS News Paris— One of the world's most historic landmarkswent up in flamesMonday. A devastating fire swept through Notre Dame, a cathedral visited by 13 million people a year. A marker outside Notre Dame shows it is at the exact geographic center of Paris, and it's also the center of the city's soul. Notre Dame, or Our Lady, is considered the most famous Gothic cathedral ever built. Construction began on the historic monum</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/news/notre-dame-cathedral-fire-paris-centuries-of-history-burned-today-2019-04-15/</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>15-04-2019</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>"Computer glitch" may be behind Notre Dame Cathedral fire, rector says - live updates</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Watch CBS News Updated on:  April 19, 2019 / 11:51 PM EDT/ CBS/AP A "computer glitch" may have been behind the fast-spreading fire that ravagedNotre Dame, the cathedral's rector said Friday. Speaking during a meeting of local business owners, rector Patrick Chauvet did not elaborate on the exact nature of the glitch, adding that "we may find out what happened in two or three months." On Thursday, Paris police investigators said they think anelectrical short-circuitmost likely caused the fire. Fr</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/live-news/notre-dame-cathedral-fire-cause-computer-glitch-rector-today-2019-04-19-live-updates/</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>19-04-2019</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Fire damages 3 Mill Valley apartments, displaces 5 residents</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Watch CBS News December 1, 2024 / 12:54 PM PST/ CBS/Bay City News Service Three apartments were damaged and five residents displaced in a blaze in a Mill Valley apartment building Saturday, the Southern Marin Fire Protection District said. At approximately 2:55 p.m., Marin County Fire Dispatch received multiple 911 calls reporting the fire at 2226 Shelter Bay Ave., according to fire officials. Firefighters fully contained the blaze by 3:45 p.m. No injuries have been reported. The fire originated</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/sanfrancisco/news/fire-damages-3-mill-valley-apartments-displaces-5-residents/</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>01-12-2024</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>5-year-old girl, woman killed when scooter or e-bike battery sparks fire at East Harlem apartment, FDNY officials say</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Watch CBS News ByZinnia Maldonado Updated on:  August 3, 2022 / 12:44 PM EDT/ CBS New York NEW YORK --Investigators are revealing the cause of an early morning deadly fire in East Harlem. An e-bike's battery sparked the explosion that killed two people, including a 5-year-old girl, at the Jackie Robinson Houses on East 129th Street. Police say the child's father remains hospitalized in critical condition. As CBS2's Astrid Martinez reports, The fire ripped through the sixth floor apartment early </t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/newyork/news/5-year-old-girl-killed-2-adults-hospitalized-after-overnight-fire-in-harlem/</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>03-08-2022</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>17 people displaced after fire burns three townhomes in El Monte</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByDean Fioresi December 1, 2024 / 5:00 PM PST/ KCAL News Three townhomes were damaged when a fire broke out on Sunday afternoon, leaving more than a dozen people with a place to stay. The fire broke out at around 12:20 p.m. at the complex of two-story buildings located in the 4000 block of Penn Mar Avenue, according to the Los Angeles County Fire Department. Crews arrived to find two of the townhomes that were already "fully involved" with flames. It quickly spread to the third st</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/losangeles/news/17-people-displaced-after-fire-burns-three-townhomes-in-el-monte/</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>01-12-2024</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Mountain Fire explodes in Ventura County amid strong Santa Ana winds</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByMika Edwards November 6, 2024 / 4:52 PM PST/ CBS News A firefighter attempts to control the blaze burning a structure as the Santa Ana wind-fed Mountain fire scorches acres in Camarillo. A wildfire fanned by powerful winds was burning out of control, with scores of residents ordered to evacuate and some taken to hospital. A firefighting helicopter makes a drop over the Mountain Fire in Camarillo. Fierce gusts were pushing smoke sideways and fueling flames that were tearing throu</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/losangeles/pictures/mountain-fire-explodes-in-ventura-county-amid-strong-santa-ana-winds/</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>06-11-2024</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Firefighters report full containment of Canyon Crest Fire near Jurupa Valley</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByMatthew Rodriguez,Mika Edwards Updated on:  December 1, 2024 / 7:48 PM PST/ KCAL News Firefighters have fully contained the Canyon Crest Fire, which burned between Jurupa Valley and Fontana last week. As of Sunday evening, fire officials said the brush fire had burned 284 acres but is now 100% contained. All evacuation warnings were lifted, and a care and reception center were closed. According to the San Bernardino County Fire, the Canyon Crest fire started around 5:30 p.m. Thu</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/losangeles/news/vegetation-fire-causes-evacuation-warnings-north-of-jurupa-valley/</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>01-12-2024</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Person found dead after fire burns garage at La Habra home</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Watch CBS News ByDean Fioresi Updated on:  November 30, 2024 / 8:00 PM PST/ KCAL News One person was found dead after a garage burnt a home in La Habra on Saturday morning. It happened at around 10:40 a.m. at a single-story house in the 1300 block of Farrington Drive, according to the Los Angeles Fire Department. Crews were able to extinguish the flames within 30 minutes, but discovered one person and two pets dead at the scene, they said. Investigators are working to determine what sparked the </t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/losangeles/news/person-found-dead-after-fire-burns-garage-at-la-habra-home/</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>30-11-2024</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Massive fire rips through South LA tire shop</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByDean Fioresi Updated on:  November 30, 2024 / 9:17 PM PST/ KCAL News Firefighters are battling a massive fire at a tire shop in South Los Angeles. The blaze was first reported at around 8:35 p.m. in the 7200 block of Avalon Boulevard, according to the Los Angeles Fire Department. It's unclear what sparked the fire, but with SkyCal overhead massive flames could be seen ripping through a building as firefighters worked to contain them. It took more than 40 firefighters to extingui</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/losangeles/news/massive-fire-rips-through-south-la-tire-shop/</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>30-11-2024</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Woman displaced after large fire burns through multiple homes on Detroit's east side</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByJordan Burrows,Alysia Burgio,Nick Lentz Updated on:  November 29, 2024 / 4:23 PM EST/ CBS Detroit (CBS DETROIT)—  The Detroit Fire Department is investigating after a fire burned through multiple homes on Detroit's east side Friday morning. Officials with the fire department say there are no reported injuries. Flames could be seen on at least three houses in the area of East Davison Street and Luce Avenue, with two houses heavily damaged. At least six fire trucks and an ambulanc</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/detroit/news/large-fire-multiple-homes-detroit-east-side/</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>29-11-2024</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Bay Area air quality advisory extended into Thursday as Sites Fire burns in NorCal</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByTim Fang June 19, 2024 / 11:47 AM PDT/ CBS San Francisco An air quality advisory for the Bay Area is being extended, as the Sites Fire continues to burn in Colusa County Wednesday. The Bay Area Air Quality Management District said that smoke is expected to impact portions of Napa, Solano and Sonoma Counties through at least Thursday. Air quality is expected to range from moderate to unhealthy for sensitive groups. Officials said residents that wildfire smoke contains fine partic</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/sanfrancisco/news/sites-fire-norcal-bay-area-air-quality-advisory-extended-june-20-napa-sonoma-solano/</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>19-06-2024</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Sites Fire burns nearly 16,000 acres in Colusa County; evacuations still in place</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByCecilio Padilla,Richard Ramos Updated on:  June 19, 2024 / 4:22 PM PDT/ CBS Sacramento COLUSA COUNTY – The Sites Fire in Colusa County has grown to burn more than 15,600 acres as of Wednesday morning. The wildfire prompted evacuation orders Monday night, and those orders were still in effect on Wednesday. Cal Fire says the incident is near Sites Lodoga Road and Stone Corral Avenue, in the general area of the community of Colusa. The Sites Fire was only 5% contained. The evacuati</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/sacramento/news/sites-fire-colusa-county-updates/</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>19-06-2024</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Post Fire holds at 15,000 acres near Gorman, as containment increases</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByDean Fioresi,Iris Salem Updated on:  June 24, 2024 / 6:28 PM PDT/ KCAL News Firefighters continue to gain control of the massive Post Fire near Gorman in northwestern Los Angeles County. The blaze is holding at 15,690 acres and is 90% contained as of Monday. Dubbed the Post Fire, the blaze was first reported a little after 1:45 p.m. Saturday near Gorman School Road and Ralph's Ranch Road close to the southbound I-5 Freeway, according to the Los Angeles County Fire Department. It</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/losangeles/news/evacuation-orders-issued-as-500-acre-brushfire-burns-near-gorman/</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>24-06-2024</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Containment reaches 100% for 14,000-acre wildfire southwest of Tracy</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByBrandon Downs,Cashea Airy Updated on:  June 6, 2024 / 6:17 PM PDT/ CBS Sacramento SAN JOAQUIN COUNTY – Containment of the Corral Fire in San Joaquin County reached 100% on Thursday evening as all evacuation warnings expired Monday evening. The fire burned 14,168 acres after it broke out near Lawrence Livermore National Laboratory Site 300, southwest of Tracy, on Saturday afternoon at 2:30 p.m., Cal Fire said. The fire jumped Corral Hollow Road and reached I-580. It then burned s</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/sacramento/news/corral-fire-southwest-tracy/</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>06-06-2024</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Married couple in critical condition after house fire in Sacramento's Northgate neighborhood</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByRichard Ramos Updated on:  November 26, 2024 / 10:49 PM PST/ CBS Sacramento SACRAMENTO — A husband and wife were left in critical condition following a house fire in Sacramento, officials said Tuesday. It happened around 3 p.m. at a home along Normington Drive in the Northgate area of the city, the Sacramento Fire Department said. No other injuries were reported. The department said heavy flames were coming from the garage and spreading across the front of the home when crews re</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/sacramento/news/house-fire-sacramento-northgate-normington-drive/</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>26-11-2024</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Northern California crews respond to help with fast-moving Mountain Fire in Southern California</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByBrady Halbleib November 6, 2024 / 11:13 PM PST/ CBS Sacramento AUBURN — Fire season remains in full swing as gusty winds of up to 60 miles per hour are fueling a fast-moving wildfire in Southern California. The Mountain Firehas scorched thousands of acres in Ventura County and is burning homes and businesses near Camarillo. The fire prompted a massive response from crews across the state, including five strike teams out of Auburn in Placer County. "The whole state of California,</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/sacramento/news/nor-cal-crews-responding-to-fast-moving-wildfire-in-ventura-county/</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Date not available</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Dutch Fire forward progress stopped after prompting evacuations in Placer, Nevada counties</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByBrandon Downs Updated on:  October 6, 2024 / 4:41 PM PDT/ CBS Sacramento NEVADA COUNTY – A wildfire burning near the Nevada and Placer county line forced officials to issue mandatory evacuations in both counties on Saturday. Cal Fire said theDutch Firewas first reported at 3:32 a.m. in the Placer County community of Dutch Flat. As of Sunday morning, the fire had burned 45 acres and was 15% contained. Forward progress was stopped and Cal Fire said crews were working through the n</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/sacramento/news/dutch-fire-updates/</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>06-10-2024</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Survivor of Northern California's Mosquito Fire still has "nightmares about burning" 2 years later</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByShelby Reilly September 9, 2024 / 5:51 PM PDT/ CBS Sacramento GEORGETOWN — El Dorado and Placer County communities continue to recover two years after the Mosquito Fire burned more than 76,000 acres. The fire started on September 6, 2022, destroying more than 70 homes and damaging 13 others. Paul Decker has owned property on Volcanoville Road for 19 years. Before the Mosquito Fire, he and his wife lived there part-time in a trailer. They also had tiny homes on the property and s</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/sacramento/news/mosquito-fire-survivor-nightmares-about-burning-2-years-later/</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>09-09-2024</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Evacuations lifted for Amaral Fire in hills near Fairfield</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByCecilio Padilla,Brandon Downs Updated on:  August 21, 2024 / 2:06 PM PDT/ CBS Sacramento A wildfire in the hills near the Solano County community of Green Valley prompted evacuation warnings and orders on Wednesday. The fire, named the Amaral Fire by Cal Fire, was burning near Amaral Court and Rockville Road. Cal Fire said the fire burned about 12 acres before they were able to stop the forward spread. As of 12:30 p.m., the fire was 75% contained. Crews reported no damage to str</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/sacramento/news/amaral-fire-solano-county-fairfield-green-valley-hills/</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>21-08-2024</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Woman arrested on suspicion of arson in Grass Valley fire that forced evacuations</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByBrandon Downs Updated on:  August 16, 2024 / 10:24 PM PDT/ CBS Sacramento GRASS VALLEY – A woman has been arrested on suspicion of starting a fire that forced evacuations in the Grass Valley area of Nevada County on Friday afternoon. The fire was burning in Grass Valley between Lumberjacks Restaurant and Sierra Motor Sports on Nevada City Highway. The Grass Valley Fire Department confirmed the fire started in vegetation and spread to the motor sports building. The Grass Valley P</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/sacramento/news/grass-valley-highway-fire/</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>16-08-2024</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Hundreds return home after wildfire along California-Nevada line near Reno destroys 1 home</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Watch CBS News BySCOTT SONNER Updated on:  August 13, 2024 / 7:55 PM PDT/ CBS/AP Hundreds of people were allowed to return home Tuesday after being forced to flee a wildfire west of Reno that also shut down Interstate 80 along the California-Nevada line. About 170 firefighters continued to work to secure the perimeter and snuff out hot spots near Verdi, a town 11 miles (17 kilometers) from downtown Reno. One home was destroyed by the fire that broke out Sunday evening and quickly burned through </t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/sacramento/news/gold-ranch-fire-nevada-california-border-dui-arrest/</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>13-08-2024</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Elderly woman killed in Folsom house fire</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByAlison Linton November 29, 2024 / 10:14 AM PST/ CBS Sacramento FOLSOM — A woman was killed in a house fire in Folsom, firefighters said. The fire started around 2 a.m. Friday inside a home on Briarcliff Drive near Fargo Way. According to the first responders at the scene, they found an elderly woman inside the burning home. She was rushed to the hospital where she was pronounced dead. A firefighter suffered a minor injury and was taken to the hospital for treatment. Officials sa</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/sacramento/news/elderly-woman-killed-in-folsom-house-fire/</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>29-11-2024</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Fuel tanks explode inside burning building in Byers that forced Coloradans out of homes</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Watch CBS News ByMichael Abeyta,Jennifer McRae Updated on:  November 29, 2024 / 7:05 PM MST/ CBS Colorado Fire crews in Colorado rushed to the scene of a building that was on fire in Byers just after 10 a.m. on Friday. According to the Arapahoe County Sheriff's Office, the large structure fire was burning at a decades-old barn in the 600 block of E. Pleasant Avenue. "A neighbor called and said that that shop was on fire," said Larry Mikita. He said the barn that caught fire was a business that r</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/colorado/news/colorado-fire-crews-rush-burning-building-fuel-tanks-exploded-byers/</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Date not available</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Line Fire</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forest Order NO. 05-12-00-24-11:Forest Closure Area around the Line Fire. All National Forest lands, trails, and roads are closed to the public within that zone (Closure Area Map). Additional fire information can be found at:Line Fire Information | InciWeb (wildfire.gov). Governor Newsom proclaimsstate of emergencyin San Bernardino County, secures federal assistance to support response to Line Fire. Numerous firefighting air tankers from throughout the State are flying fire suppression missions </t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://www.fire.ca.gov/incidents/2024/9/5/line-fire</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Date not available</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Bridge Fire</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Update 10/28/24:Angeles National Forest firefighters use the latest tools and technology available to gather information and assess risk. Images uploaded below were taken during an overnight reconnaissance flight by our air attack plane. Today, firefighters will continue to secure the containment line by identifying heat sources with the potential to spread to unburned fuel (grass, brush, trees). White dots on the maps show hot spots. Damage inspection teams completed their inspections. Resident</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://www.fire.ca.gov/incidents/2024/9/8/bridge-fire</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Date not available</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Airport Fire</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Crews remain on the fireline today, conducting patrol, monitoring, fire suppression repair and infrastructure repair. The Burned Area Emergency Response (BAER) team also remains on site, working in conjunction with these resources. A drone outfitted with infrared sensors flew the fire yesterday. It reported no additional heat signatures near any of the containment lines. The fire has been static for a week, meaning it has not expanded or consumed any more acreage. Fire engines and crews continue</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://www.fire.ca.gov/incidents/2024/9/9/airport-fire</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Date not available</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Passengers on parked Southwest plane forced to evacuate after cell phone, airplane seat catch fire</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Travelers aboard a Southwest Airlines flight preparing to leave Denver Friday had to evacuate after a passenger’s cell phone battery caught on fire and caused an airplane seat to catch fire as well. The Boeing 737-700 was still parked at a gate with 108 passengers on board when the incident occurred at Denver International Airport, according to Southwest. Passengers in the back of the plane fled using the rear emergency slides, and passengers toward the front left through the front door via the </t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://www.cnn.com/2024/11/15/travel/southwest-airlines-fire-slide-evacuation/index.html</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>15-11-2024</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Georgia passerby saves man from burning home by kicking down storm door</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>This material may not be published, broadcast, rewritten,
+      or redistributed. ©2024 FOX News Network, LLC. All rights reserved.
+      Quotes displayed in real-time or delayed by at least 15 minutes. Market data provided byFactset. Powered and implemented byFactSet Digital Solutions.Legal Statement. Mutual Fund and ETF data provided byRefinitiv Lipper. Fox News Flash top headlines are here. Check out what's clicking on Foxnews.com. A Georgia homeowner has recounted how aquick-thinking passerb</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://www.foxnews.com/us/georgia-passerby-saves-man-burning-home-kicking-down-storm-door</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>29-10-2023</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Firefighter pulls toddler from burning apartment building in dramatic early morning rescue: video</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>This material may not be published, broadcast, rewritten,
+      or redistributed. ©2024 FOX News Network, LLC. All rights reserved.
+      Quotes displayed in real-time or delayed by at least 15 minutes. Market data provided byFactset. Powered and implemented byFactSet Digital Solutions.Legal Statement. Mutual Fund and ETF data provided byRefinitiv Lipper. Firefighters rescued 2-year-old Liam Keen from the window of a burning apartment building in Granbury, Texas, early Sunday morning. (Credit: G</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://www.foxnews.com/us/firefighter-pulls-toddler-burning-apartment-building-dramatic-early-morning-rescue-video</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>01-01-2024</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
